--- a/csv_test/ENERO 08012025 --- 20250102  Lista de Precios BIOPAS.xlsx
+++ b/csv_test/ENERO 08012025 --- 20250102  Lista de Precios BIOPAS.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://portalcorp-my.sharepoint.com/personal/sbruno_rofina_com_ar/Documents/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\distriapp\csv_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +36,6 @@
     <definedName name="____new1" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="____r" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="____tm1" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
-    <definedName name="___287" localSheetId="0">#REF!</definedName>
     <definedName name="___287">#REF!</definedName>
     <definedName name="___a1" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="___aaa1" hidden="1">{#N/A,#N/A,FALSE,"REPORT"}</definedName>
@@ -47,10 +45,8 @@
     <definedName name="___r" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="___tm1" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="__1__123Graph_ACHART_1" hidden="1">'[1]Results from Nov 98'!$B$5:$B$9</definedName>
-    <definedName name="__1_287" localSheetId="0">#REF!</definedName>
     <definedName name="__1_287">#REF!</definedName>
     <definedName name="__2__123Graph_ACHART_2" hidden="1">'[1]Results from Nov 98'!$C$31:$C$51</definedName>
-    <definedName name="__287" localSheetId="0">#REF!</definedName>
     <definedName name="__287">#REF!</definedName>
     <definedName name="__3__123Graph_BCHART_1" hidden="1">'[1]Results from Nov 98'!$C$5:$C$9</definedName>
     <definedName name="__4__123Graph_CCHART_1" hidden="1">'[1]Results from Nov 98'!$D$5:$D$9</definedName>
@@ -65,14 +61,12 @@
     <definedName name="__r" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="__tm1" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="_1__123Graph_ACHART_1" hidden="1">'[1]Results from Nov 98'!$B$5:$B$9</definedName>
-    <definedName name="_1_287" localSheetId="0">#REF!</definedName>
     <definedName name="_1_287">#REF!</definedName>
     <definedName name="_10__123Graph_DCHART_1" hidden="1">'[2]Results from Nov 98'!$E$5:$E$9</definedName>
     <definedName name="_12__123Graph_ECHART_1" hidden="1">'[2]Results from Nov 98'!$F$5:$F$9</definedName>
     <definedName name="_14__123Graph_XCHART_2" hidden="1">'[2]Results from Nov 98'!$B$31:$B$51</definedName>
     <definedName name="_2__123Graph_ACHART_1" hidden="1">'[2]Results from Nov 98'!$B$5:$B$9</definedName>
     <definedName name="_2__123Graph_ACHART_2" hidden="1">'[1]Results from Nov 98'!$C$31:$C$51</definedName>
-    <definedName name="_287" localSheetId="0">#REF!</definedName>
     <definedName name="_287">#REF!</definedName>
     <definedName name="_3__123Graph_BCHART_1" hidden="1">'[1]Results from Nov 98'!$C$5:$C$9</definedName>
     <definedName name="_4__123Graph_ACHART_2" hidden="1">'[2]Results from Nov 98'!$C$31:$C$51</definedName>
@@ -81,7 +75,6 @@
     <definedName name="_6__123Graph_BCHART_1" hidden="1">'[2]Results from Nov 98'!$C$5:$C$9</definedName>
     <definedName name="_6__123Graph_ECHART_1" hidden="1">'[1]Results from Nov 98'!$F$5:$F$9</definedName>
     <definedName name="_7__123Graph_XCHART_2" hidden="1">'[1]Results from Nov 98'!$B$31:$B$51</definedName>
-    <definedName name="_7_287" localSheetId="0">#REF!</definedName>
     <definedName name="_7_287">#REF!</definedName>
     <definedName name="_8__123Graph_CCHART_1" hidden="1">'[2]Results from Nov 98'!$D$5:$D$9</definedName>
     <definedName name="_a1" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
@@ -90,7 +83,6 @@
     <definedName name="_ACS2000" hidden="1">{#N/A,#N/A,FALSE,"REPORT"}</definedName>
     <definedName name="_bdm.FBC8F4734CD44B95848F689416B40C4F.edm" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PRECIO '!$A$15:$L$88</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Key2" hidden="1">#REF!</definedName>
     <definedName name="_new1" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
@@ -125,7 +117,6 @@
     <definedName name="ar" hidden="1">{"'TYPE (2)'!$A$1:$Q$76"}</definedName>
     <definedName name="ard" hidden="1">{"'TYPE (2)'!$A$1:$Q$76"}</definedName>
     <definedName name="Area">[3]Cover!$B$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'PRECIO '!$A$1:$K$88</definedName>
     <definedName name="arv" hidden="1">{"'TYPE (2)'!$A$1:$Q$76"}</definedName>
     <definedName name="AS" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="AS2DocOpenMode" hidden="1">"AS2DocumentEdit"</definedName>
@@ -152,20 +143,16 @@
     <definedName name="BBBBBB" hidden="1">{#N/A,#N/A,FALSE,"REPORT"}</definedName>
     <definedName name="BBBBBBBBB" hidden="1">{#N/A,#N/A,FALSE,"REPORT"}</definedName>
     <definedName name="bbbbbbbbbbbbb" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
-    <definedName name="Bonifica" localSheetId="0">#REF!</definedName>
     <definedName name="Bonifica">#REF!</definedName>
-    <definedName name="bonifica1" localSheetId="0">#REF!</definedName>
     <definedName name="bonifica1">#REF!</definedName>
     <definedName name="bp2010xjun09" hidden="1">{"'TYPE (2)'!$A$1:$Q$76"}</definedName>
     <definedName name="COGstandard" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
-    <definedName name="conmargenes" localSheetId="0">#REF!</definedName>
     <definedName name="conmargenes">#REF!</definedName>
     <definedName name="conso" hidden="1">{"'TYPE (2)'!$A$1:$Q$76"}</definedName>
     <definedName name="copy1" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="copy233" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="copy33" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="copy38" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
-    <definedName name="ctivaincrem" localSheetId="0">#REF!</definedName>
     <definedName name="ctivaincrem">#REF!</definedName>
     <definedName name="dakfkjafgkeaj" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="DATA1">#REF!</definedName>
@@ -246,7 +233,6 @@
     <definedName name="HTML_Title" hidden="1">"MarketPerformance"</definedName>
     <definedName name="Hypertention" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="hypo" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
-    <definedName name="IMPRE_LISTA_PRECIO" localSheetId="0">#REF!</definedName>
     <definedName name="IMPRE_LISTA_PRECIO">#REF!</definedName>
     <definedName name="IP" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="IQ_ACCOUNT_CHANGE" hidden="1">"c413"</definedName>
@@ -1753,19 +1739,13 @@
     <definedName name="kkk" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="kslkjkjlkjd" hidden="1">{#N/A,#N/A,FALSE,"REPORT"}</definedName>
     <definedName name="LIS">[4]Insti!$A$7:$G$613</definedName>
-    <definedName name="lista" localSheetId="0">#REF!</definedName>
     <definedName name="lista">#REF!</definedName>
     <definedName name="LISTABUS" hidden="1">[5]Maestros!$B$4:$B$17</definedName>
     <definedName name="LISTAIP" hidden="1">[6]Maestros!$H$15:$H$24</definedName>
-    <definedName name="ListaOrig" localSheetId="0">#REF!</definedName>
     <definedName name="ListaOrig">#REF!</definedName>
-    <definedName name="LISTAS" localSheetId="0">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
     <definedName name="LISTAS">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
-    <definedName name="ListaSup" localSheetId="0">#REF!</definedName>
     <definedName name="ListaSup">#REF!</definedName>
-    <definedName name="ListaSuper" localSheetId="0">#REF!</definedName>
     <definedName name="ListaSuper">#REF!</definedName>
-    <definedName name="listasuperm" localSheetId="0">#REF!</definedName>
     <definedName name="listasuperm">#REF!</definedName>
     <definedName name="Listrans">#REF!</definedName>
     <definedName name="Listrans1">#REF!</definedName>
@@ -1775,13 +1755,11 @@
     <definedName name="LSup_Un">#REF!</definedName>
     <definedName name="min" hidden="1">{#N/A,#N/A,FALSE,"REPORT"}</definedName>
     <definedName name="mlw" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
-    <definedName name="msjsd" localSheetId="0">#REF!</definedName>
     <definedName name="msjsd">#REF!</definedName>
     <definedName name="mw" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="new" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="newnewnew" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="nouv" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
-    <definedName name="NUEVAIMP" localSheetId="0">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
     <definedName name="NUEVAIMP">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
     <definedName name="OK" hidden="1">{#N/A,#N/A,FALSE,"REPORT"}</definedName>
     <definedName name="other33" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
@@ -1793,7 +1771,6 @@
     <definedName name="pl" hidden="1">{#N/A,#N/A,FALSE,"REPORT"}</definedName>
     <definedName name="Pnl" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="POKM" hidden="1">#REF!</definedName>
-    <definedName name="Porcentajeincrem" localSheetId="0">#REF!</definedName>
     <definedName name="Porcentajeincrem">#REF!</definedName>
     <definedName name="port29" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="pp" hidden="1">{"'TYPE (2)'!$A$1:$Q$76"}</definedName>
@@ -1831,11 +1808,8 @@
     <definedName name="TESTKEYS">#REF!</definedName>
     <definedName name="TESTVKEY">#REF!</definedName>
     <definedName name="TextRefCopyRangeCount" hidden="1">2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'PRECIO '!$1:$16</definedName>
-    <definedName name="TOR" localSheetId="0">#REF!</definedName>
     <definedName name="TOR">#REF!</definedName>
     <definedName name="TORCU">[4]Insti!$A$7:$G$613</definedName>
-    <definedName name="TRANSFERIR" localSheetId="0">#REF!</definedName>
     <definedName name="TRANSFERIR">#REF!</definedName>
     <definedName name="TW" hidden="1">#REF!</definedName>
     <definedName name="vvvvvvvvvvvvvvvvvvvvvvvvvvvv" hidden="1">#REF!</definedName>
@@ -1898,32 +1872,46 @@
     <definedName name="ZSZ" hidden="1">{#N/A,#N/A,FALSE,"Phar";#N/A,#N/A,FALSE,"Card";#N/A,#N/A,FALSE,"Prav";#N/A,#N/A,FALSE,"Irbe";#N/A,#N/A,FALSE,"Plavix";#N/A,#N/A,FALSE,"Capt";#N/A,#N/A,FALSE,"Fosi";#N/A,#N/A,FALSE,"Anti";#N/A,#N/A,FALSE,"Cefa";#N/A,#N/A,FALSE,"Ceph";#N/A,#N/A,FALSE,"Cefp";#N/A,#N/A,FALSE,"Cefe";#N/A,#N/A,FALSE,"Pens";#N/A,#N/A,FALSE,"Ampi";#N/A,#N/A,FALSE,"Amox";#N/A,#N/A,FALSE,"Isox";#N/A,#N/A,FALSE,"Aztr";#N/A,#N/A,FALSE,"Videx";#N/A,#N/A,FALSE,"Zerit";#N/A,#N/A,FALSE,"CNS";#N/A,#N/A,FALSE,"Serz";#N/A,#N/A,FALSE,"Onco";#N/A,#N/A,FALSE,"Taxol";#N/A,#N/A,FALSE,"UFT";#N/A,#N/A,FALSE,"Carb";#N/A,#N/A,FALSE,"Derm";#N/A,#N/A,FALSE,"Other";#N/A,#N/A,FALSE,"Ace"}</definedName>
     <definedName name="zzee" hidden="1">{#N/A,#N/A,FALSE,"Pharm";#N/A,#N/A,FALSE,"WWCM"}</definedName>
     <definedName name="zzzzz" hidden="1">{#N/A,#N/A,FALSE,"REPORT"}</definedName>
+    <definedName name="___287" localSheetId="0">#REF!</definedName>
+    <definedName name="__1_287" localSheetId="0">#REF!</definedName>
+    <definedName name="__287" localSheetId="0">#REF!</definedName>
+    <definedName name="_1_287" localSheetId="0">#REF!</definedName>
+    <definedName name="_287" localSheetId="0">#REF!</definedName>
+    <definedName name="_7_287" localSheetId="0">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PRECIO '!$A$15:$L$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'PRECIO '!$A$1:$K$88</definedName>
+    <definedName name="Bonifica" localSheetId="0">#REF!</definedName>
+    <definedName name="bonifica1" localSheetId="0">#REF!</definedName>
+    <definedName name="conmargenes" localSheetId="0">#REF!</definedName>
+    <definedName name="ctivaincrem" localSheetId="0">#REF!</definedName>
+    <definedName name="IMPRE_LISTA_PRECIO" localSheetId="0">#REF!</definedName>
+    <definedName name="lista" localSheetId="0">#REF!</definedName>
+    <definedName name="ListaOrig" localSheetId="0">#REF!</definedName>
+    <definedName name="LISTAS" localSheetId="0">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
+    <definedName name="ListaSup" localSheetId="0">#REF!</definedName>
+    <definedName name="ListaSuper" localSheetId="0">#REF!</definedName>
+    <definedName name="listasuperm" localSheetId="0">#REF!</definedName>
+    <definedName name="msjsd" localSheetId="0">#REF!</definedName>
+    <definedName name="NUEVAIMP" localSheetId="0">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
+    <definedName name="Porcentajeincrem" localSheetId="0">#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'PRECIO '!$1:$16</definedName>
+    <definedName name="TOR" localSheetId="0">#REF!</definedName>
+    <definedName name="TRANSFERIR" localSheetId="0">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>LISTA DE PRECIOS N°</t>
   </si>
   <si>
     <t>VIGENCIA</t>
+  </si>
+  <si>
+    <t>02 de Enero 2025</t>
   </si>
   <si>
     <t>Biopas Argentina S.A.</t>
@@ -1934,21 +1922,21 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
         <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <scheme val="none"/>
       </rPr>
       <t>(*)</t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color theme="1"/>
         <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <scheme val="none"/>
       </rPr>
       <t xml:space="preserve"> Producto exento iva</t>
     </r>
@@ -1987,13 +1975,13 @@
     <t>Envase</t>
   </si>
   <si>
-    <t>DROGUERIA</t>
+    <t>DROGUERIA SIN IVA</t>
   </si>
   <si>
     <t>(*) Producto exento iva</t>
   </si>
   <si>
-    <t>SUGERIDO</t>
+    <t>SUGERIDO PUBLICO</t>
   </si>
   <si>
     <t>N°</t>
@@ -2065,10 +2053,16 @@
     <t>AKATINOL 20 MG COMP REC X 28</t>
   </si>
   <si>
+    <t>38000012BR05</t>
+  </si>
+  <si>
+    <t>BRIVIACT 25 MG COMP. REC. X 28</t>
+  </si>
+  <si>
     <t>38000012BR01</t>
   </si>
   <si>
-    <t>BRIVIACT  50 MG COMP REC X 28</t>
+    <t xml:space="preserve">BRIVIACT  50 MG COMP REC X 28</t>
   </si>
   <si>
     <t>38000012BR02</t>
@@ -2083,6 +2077,15 @@
     <t>BRIVIACT 10 MG/ML VIAL X 5 ML IV X 10</t>
   </si>
   <si>
+    <t>38000012BR04</t>
+  </si>
+  <si>
+    <t>Briviact Solución Oral 10 mg/ml x 300 ml</t>
+  </si>
+  <si>
+    <t>38000012BR06</t>
+  </si>
+  <si>
     <t>38000012CR01</t>
   </si>
   <si>
@@ -2092,7 +2095,7 @@
     <t>38000014VI01</t>
   </si>
   <si>
-    <t>VIMPAT  50 MG COMP REC X 14</t>
+    <t xml:space="preserve">VIMPAT  50 MG COMP REC X 14</t>
   </si>
   <si>
     <t>38000014VI02</t>
@@ -2179,6 +2182,9 @@
     <t>38000013IX03</t>
   </si>
   <si>
+    <t>Trat. Especiales</t>
+  </si>
+  <si>
     <t>IXEMPRA INY 15 MG /8 ML X 1 FCO AMP</t>
   </si>
   <si>
@@ -2215,6 +2221,12 @@
     <t>38000014VI08</t>
   </si>
   <si>
+    <t>38000014VI09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIMPAT 200 MG solución inyectable  x 1 Fco amp 20ml</t>
+  </si>
+  <si>
     <t>38000015NE05</t>
   </si>
   <si>
@@ -2224,66 +2236,63 @@
     <t>38000015NE07</t>
   </si>
   <si>
+    <t>38000015NE08</t>
+  </si>
+  <si>
     <t>38000017LO01</t>
   </si>
   <si>
+    <t>clinica</t>
+  </si>
+  <si>
     <t>LOSEC 20 MG X 28 COMP</t>
   </si>
   <si>
-    <t>clinica</t>
-  </si>
-  <si>
-    <t>38000015NE08</t>
-  </si>
-  <si>
-    <t>38000012BR04</t>
-  </si>
-  <si>
-    <t>Briviact Solución Oral 10 mg/ml x 300 ml</t>
+    <t>38000018CU01</t>
   </si>
   <si>
     <t>CUROSURF 120 vial x 1,5 ml</t>
   </si>
   <si>
-    <t>38000018CU01</t>
+    <t>38000018CU02</t>
   </si>
   <si>
     <t>CUROSURF 240 vial x 3,0 ml</t>
   </si>
   <si>
-    <t>38000018CU02</t>
+    <t>38000019KO01</t>
+  </si>
+  <si>
+    <t>KONAKION MM 10 MG AMP X 5</t>
+  </si>
+  <si>
+    <t>38000001VE01</t>
+  </si>
+  <si>
+    <t>Vesanoid 10 mg x 100 caps.</t>
+  </si>
+  <si>
+    <t>38000019VA01</t>
+  </si>
+  <si>
+    <t>Valixa 450 mg x 60 comprimidos</t>
+  </si>
+  <si>
+    <t>38000018CU03</t>
+  </si>
+  <si>
+    <t>38000018CU04</t>
+  </si>
+  <si>
+    <t>38000020XE01</t>
+  </si>
+  <si>
+    <t>XELODA 500 MG X 120 COMP</t>
   </si>
   <si>
     <t>77000001SU01</t>
   </si>
   <si>
-    <t>38000019KO01</t>
-  </si>
-  <si>
-    <t>KONAKION MM 10 MG AMP X 5</t>
-  </si>
-  <si>
-    <t>38000001VE01</t>
-  </si>
-  <si>
-    <t>Vesanoid 10 mg x 100 caps.</t>
-  </si>
-  <si>
-    <t>Trat. Especiales</t>
-  </si>
-  <si>
-    <t>38000012BR05</t>
-  </si>
-  <si>
-    <t>BRIVIACT 25 MG COMP. REC. X 28</t>
-  </si>
-  <si>
-    <t>38000014VI09</t>
-  </si>
-  <si>
-    <t>VIMPAT 200 MG solución inyectable  x 1 Fco amp 20ml</t>
-  </si>
-  <si>
     <t>77000003LE02</t>
   </si>
   <si>
@@ -2302,48 +2311,42 @@
     <t>77000005KO01</t>
   </si>
   <si>
+    <t>77000007RI01</t>
+  </si>
+  <si>
     <t>RIVOTRIL 0.5 mg Comp x 30</t>
   </si>
   <si>
+    <t>77000007RI02</t>
+  </si>
+  <si>
     <t>RIVOTRIL 0.5 mg comp.x 50</t>
   </si>
   <si>
+    <t>77000007RI03</t>
+  </si>
+  <si>
     <t>RIVOTRIL 0.5 mg Comp x 60</t>
   </si>
   <si>
+    <t>77000007RI04</t>
+  </si>
+  <si>
     <t>RIVOTRIL 2 mg Comp x 30</t>
   </si>
   <si>
+    <t>77000007RI05</t>
+  </si>
+  <si>
     <t>RIVOTRIL 2 mg Comp x 50</t>
   </si>
   <si>
+    <t>77000007RI06</t>
+  </si>
+  <si>
     <t>RIVOTRIL 2 mg Comp x 60</t>
   </si>
   <si>
-    <t>77000007RI01</t>
-  </si>
-  <si>
-    <t>77000007RI02</t>
-  </si>
-  <si>
-    <t>77000007RI03</t>
-  </si>
-  <si>
-    <t>77000007RI04</t>
-  </si>
-  <si>
-    <t>77000007RI05</t>
-  </si>
-  <si>
-    <t>77000007RI06</t>
-  </si>
-  <si>
-    <t>Valixa 450 mg x 60 comprimidos</t>
-  </si>
-  <si>
-    <t>38000019VA01</t>
-  </si>
-  <si>
     <t>77000004VE01</t>
   </si>
   <si>
@@ -2353,58 +2356,40 @@
     <t>Rohypnol 1 mg x 30 comprimidos</t>
   </si>
   <si>
-    <t>38000018CU03</t>
-  </si>
-  <si>
-    <t>38000018CU04</t>
-  </si>
-  <si>
-    <t>38000012BR06</t>
-  </si>
-  <si>
-    <t>XELODA 500 MG X 120 COMP</t>
-  </si>
-  <si>
-    <t>38000020XE01</t>
-  </si>
-  <si>
     <t>77000008XE02</t>
   </si>
   <si>
     <t>77000009VA01</t>
   </si>
   <si>
+    <t>3800021ATA03</t>
+  </si>
+  <si>
     <t>ATACAND TAB 8MG BL 2X14 EA AR</t>
   </si>
   <si>
+    <t>3800021ATA04</t>
+  </si>
+  <si>
     <t>ATACAND TAB 16MG BL 2X14 EA AR</t>
   </si>
   <si>
+    <t>3800021ATA05</t>
+  </si>
+  <si>
     <t>ATACAND TAB 32MG BL 2X14 EA AR</t>
   </si>
   <si>
-    <t>3800021ATA03</t>
-  </si>
-  <si>
-    <t>3800021ATA04</t>
-  </si>
-  <si>
-    <t>3800021ATA05</t>
-  </si>
-  <si>
     <t>3800021ATA01</t>
   </si>
   <si>
+    <t>ATACAND D 8 MG/12,5 MG x 28 COMP</t>
+  </si>
+  <si>
     <t>3800021ATA02</t>
   </si>
   <si>
     <t>ATACAND D 16 MG x 28 COMP</t>
-  </si>
-  <si>
-    <t>ATACAND D 8 MG/12,5 MG x 28 COMP</t>
-  </si>
-  <si>
-    <t>02 de Enero 2025</t>
   </si>
   <si>
     <t>3800022FAM01</t>
@@ -2416,23 +2401,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00 _$_-;-* #,##0.00 _$_-;_-* &quot;-&quot;?? _$_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_ &quot;$&quot; * #,##0.00_ ;_ &quot;$&quot; * -#,##0.00_ ;_ &quot;$&quot; * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00 &quot;$&quot;_-;-* #,##0.00 &quot;$&quot;_-;_-* &quot;-&quot;?? &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2443,76 +2421,59 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2536,7 +2497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2548,174 +2509,116 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="28">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="medium">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
+        <color theme="2" tint="-0.0999481185338908"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
+        <color theme="2" tint="-0.0999481185338908"/>
       </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="medium">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
+        <color theme="2" tint="-0.0999481185338908"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
+        <color theme="2" tint="-0.0999481185338908"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="medium">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
+        <color theme="2" tint="-0.0999481185338908"/>
       </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
+        <color theme="2" tint="-0.0999481185338908"/>
       </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -2725,534 +2628,493 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="hair">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
       <top style="hair">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </top>
       <bottom style="hair">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="hair">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </top>
       <bottom style="hair">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="hair">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </top>
       <bottom style="hair">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <top style="hair">
+        <color theme="0" tint="-0.14996795556505"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.14996795556505"/>
+      </top>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
       <top style="hair">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
       <top style="hair">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="hair">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
     </border>
     <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="hair">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="20" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="20" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="20" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="20" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="20" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="26" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="26" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="26" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="26" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="26" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="26" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="26" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="23" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="24" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="25" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Millares 2" xfId="4"/>
-    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Millares 2" xfId="2"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Currency" xfId="4" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3265,29 +3127,16 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2028825" cy="1394883"/>
+    <xdr:ext cx="2028825" cy="1394884"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BBE21C6-5D03-4605-AC38-37E57C460140}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3295,34 +3144,13 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4800600" y="209550"/>
-          <a:ext cx="2028825" cy="1394883"/>
+          <a:ext cx="2028825" cy="1394884"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3334,29 +3162,16 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1925108" cy="695325"/>
+    <xdr:ext cx="1925109" cy="695325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C7EEE4-234F-482B-8A12-118A674E4DB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3364,34 +3179,13 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="419100" y="304800"/>
-          <a:ext cx="1925108" cy="695325"/>
+          <a:ext cx="1925109" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3400,7 +3194,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="sales proj-hirs"/>
@@ -3431,8 +3225,8 @@
       <sheetName val="Datos"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
+      <sheetData refreshError="1" sheetId="0"/>
+      <sheetData refreshError="1" sheetId="1">
         <row r="5">
           <cell r="B5">
             <v>12.5287380218506</v>
@@ -3523,7 +3317,7 @@
             <v>-56.777650000000001</v>
           </cell>
           <cell r="C31">
-            <v>2E-3</v>
+            <v>0.002</v>
           </cell>
         </row>
         <row r="32">
@@ -3531,7 +3325,7 @@
             <v>-31.441939999999999</v>
           </cell>
           <cell r="C32">
-            <v>7.0000000000000001E-3</v>
+            <v>0.0070000000000000001</v>
           </cell>
         </row>
         <row r="33">
@@ -3539,7 +3333,7 @@
             <v>-6.106223</v>
           </cell>
           <cell r="C33">
-            <v>0.03</v>
+            <v>0.029999999999999999</v>
           </cell>
         </row>
         <row r="34">
@@ -3547,7 +3341,7 @@
             <v>19.229489999999998</v>
           </cell>
           <cell r="C34">
-            <v>6.3E-2</v>
+            <v>0.063</v>
           </cell>
         </row>
         <row r="35">
@@ -3555,7 +3349,7 @@
             <v>44.565199999999997</v>
           </cell>
           <cell r="C35">
-            <v>9.8000000000000004E-2</v>
+            <v>0.098000000000000004</v>
           </cell>
         </row>
         <row r="36">
@@ -3595,7 +3389,7 @@
             <v>171.24379999999999</v>
           </cell>
           <cell r="C40">
-            <v>8.9499999999999996E-2</v>
+            <v>0.089499999999999996</v>
           </cell>
         </row>
         <row r="41">
@@ -3603,7 +3397,7 @@
             <v>196.5795</v>
           </cell>
           <cell r="C41">
-            <v>6.5000000000000002E-2</v>
+            <v>0.065000000000000002</v>
           </cell>
         </row>
         <row r="42">
@@ -3611,7 +3405,7 @@
             <v>221.9152</v>
           </cell>
           <cell r="C42">
-            <v>5.0500000000000003E-2</v>
+            <v>0.050500000000000003</v>
           </cell>
         </row>
         <row r="43">
@@ -3619,7 +3413,7 @@
             <v>247.2509</v>
           </cell>
           <cell r="C43">
-            <v>3.1E-2</v>
+            <v>0.031</v>
           </cell>
         </row>
         <row r="44">
@@ -3627,7 +3421,7 @@
             <v>272.58659999999998</v>
           </cell>
           <cell r="C44">
-            <v>2.5999999999999999E-2</v>
+            <v>0.025999999999999999</v>
           </cell>
         </row>
         <row r="45">
@@ -3635,7 +3429,7 @@
             <v>297.92230000000001</v>
           </cell>
           <cell r="C45">
-            <v>1.4999999999999999E-2</v>
+            <v>0.014999999999999999</v>
           </cell>
         </row>
         <row r="46">
@@ -3643,7 +3437,7 @@
             <v>323.25810000000001</v>
           </cell>
           <cell r="C46">
-            <v>8.9999999999999993E-3</v>
+            <v>0.0089999999999999993</v>
           </cell>
         </row>
         <row r="47">
@@ -3651,7 +3445,7 @@
             <v>348.59379999999999</v>
           </cell>
           <cell r="C47">
-            <v>2.5000000000000001E-3</v>
+            <v>0.0025000000000000001</v>
           </cell>
         </row>
         <row r="48">
@@ -3659,7 +3453,7 @@
             <v>373.92950000000002</v>
           </cell>
           <cell r="C48">
-            <v>3.5000000000000001E-3</v>
+            <v>0.0035000000000000001</v>
           </cell>
         </row>
         <row r="49">
@@ -3667,7 +3461,7 @@
             <v>399.26519999999999</v>
           </cell>
           <cell r="C49">
-            <v>5.0000000000000001E-4</v>
+            <v>0.00050000000000000001</v>
           </cell>
         </row>
         <row r="50">
@@ -3675,7 +3469,7 @@
             <v>424.60090000000002</v>
           </cell>
           <cell r="C50">
-            <v>5.0000000000000001E-4</v>
+            <v>0.00050000000000000001</v>
           </cell>
         </row>
         <row r="51">
@@ -3702,19 +3496,19 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData refreshError="1" sheetId="20"/>
+      <sheetData refreshError="1" sheetId="21"/>
+      <sheetData refreshError="1" sheetId="22"/>
+      <sheetData refreshError="1" sheetId="23"/>
+      <sheetData refreshError="1" sheetId="24"/>
+      <sheetData refreshError="1" sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="sales proj-hirs"/>
@@ -3745,8 +3539,8 @@
       <sheetName val="Tables"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
+      <sheetData refreshError="1" sheetId="0"/>
+      <sheetData refreshError="1" sheetId="1">
         <row r="5">
           <cell r="B5">
             <v>12.5287380218506</v>
@@ -3837,7 +3631,7 @@
             <v>-56.777650000000001</v>
           </cell>
           <cell r="C31">
-            <v>2E-3</v>
+            <v>0.002</v>
           </cell>
         </row>
         <row r="32">
@@ -3845,7 +3639,7 @@
             <v>-31.441939999999999</v>
           </cell>
           <cell r="C32">
-            <v>7.0000000000000001E-3</v>
+            <v>0.0070000000000000001</v>
           </cell>
         </row>
         <row r="33">
@@ -3853,7 +3647,7 @@
             <v>-6.106223</v>
           </cell>
           <cell r="C33">
-            <v>0.03</v>
+            <v>0.029999999999999999</v>
           </cell>
         </row>
         <row r="34">
@@ -3861,7 +3655,7 @@
             <v>19.229489999999998</v>
           </cell>
           <cell r="C34">
-            <v>6.3E-2</v>
+            <v>0.063</v>
           </cell>
         </row>
         <row r="35">
@@ -3869,7 +3663,7 @@
             <v>44.565199999999997</v>
           </cell>
           <cell r="C35">
-            <v>9.8000000000000004E-2</v>
+            <v>0.098000000000000004</v>
           </cell>
         </row>
         <row r="36">
@@ -3909,7 +3703,7 @@
             <v>171.24379999999999</v>
           </cell>
           <cell r="C40">
-            <v>8.9499999999999996E-2</v>
+            <v>0.089499999999999996</v>
           </cell>
         </row>
         <row r="41">
@@ -3917,7 +3711,7 @@
             <v>196.5795</v>
           </cell>
           <cell r="C41">
-            <v>6.5000000000000002E-2</v>
+            <v>0.065000000000000002</v>
           </cell>
         </row>
         <row r="42">
@@ -3925,7 +3719,7 @@
             <v>221.9152</v>
           </cell>
           <cell r="C42">
-            <v>5.0500000000000003E-2</v>
+            <v>0.050500000000000003</v>
           </cell>
         </row>
         <row r="43">
@@ -3933,7 +3727,7 @@
             <v>247.2509</v>
           </cell>
           <cell r="C43">
-            <v>3.1E-2</v>
+            <v>0.031</v>
           </cell>
         </row>
         <row r="44">
@@ -3941,7 +3735,7 @@
             <v>272.58659999999998</v>
           </cell>
           <cell r="C44">
-            <v>2.5999999999999999E-2</v>
+            <v>0.025999999999999999</v>
           </cell>
         </row>
         <row r="45">
@@ -3949,7 +3743,7 @@
             <v>297.92230000000001</v>
           </cell>
           <cell r="C45">
-            <v>1.4999999999999999E-2</v>
+            <v>0.014999999999999999</v>
           </cell>
         </row>
         <row r="46">
@@ -3957,7 +3751,7 @@
             <v>323.25810000000001</v>
           </cell>
           <cell r="C46">
-            <v>8.9999999999999993E-3</v>
+            <v>0.0089999999999999993</v>
           </cell>
         </row>
         <row r="47">
@@ -3965,7 +3759,7 @@
             <v>348.59379999999999</v>
           </cell>
           <cell r="C47">
-            <v>2.5000000000000001E-3</v>
+            <v>0.0025000000000000001</v>
           </cell>
         </row>
         <row r="48">
@@ -3973,7 +3767,7 @@
             <v>373.92950000000002</v>
           </cell>
           <cell r="C48">
-            <v>3.5000000000000001E-3</v>
+            <v>0.0035000000000000001</v>
           </cell>
         </row>
         <row r="49">
@@ -3981,7 +3775,7 @@
             <v>399.26519999999999</v>
           </cell>
           <cell r="C49">
-            <v>5.0000000000000001E-4</v>
+            <v>0.00050000000000000001</v>
           </cell>
         </row>
         <row r="50">
@@ -3989,7 +3783,7 @@
             <v>424.60090000000002</v>
           </cell>
           <cell r="C50">
-            <v>5.0000000000000001E-4</v>
+            <v>0.00050000000000000001</v>
           </cell>
         </row>
         <row r="51">
@@ -4017,18 +3811,18 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData refreshError="1" sheetId="21"/>
+      <sheetData refreshError="1" sheetId="22"/>
+      <sheetData refreshError="1" sheetId="23"/>
+      <sheetData refreshError="1" sheetId="24"/>
+      <sheetData refreshError="1" sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Delta"/>
@@ -4050,14 +3844,14 @@
       <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData refreshError="1" sheetId="0"/>
+      <sheetData refreshError="1" sheetId="1"/>
+      <sheetData refreshError="1" sheetId="2"/>
+      <sheetData refreshError="1" sheetId="3"/>
+      <sheetData refreshError="1" sheetId="4"/>
+      <sheetData refreshError="1" sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData refreshError="1" sheetId="7"/>
       <sheetData sheetId="8">
         <row r="3">
           <cell r="B3" t="str">
@@ -4070,21 +3864,21 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData refreshError="1" sheetId="9"/>
+      <sheetData refreshError="1" sheetId="10"/>
+      <sheetData refreshError="1" sheetId="11"/>
+      <sheetData refreshError="1" sheetId="12"/>
+      <sheetData refreshError="1" sheetId="13"/>
+      <sheetData refreshError="1" sheetId="14"/>
+      <sheetData refreshError="1" sheetId="15"/>
+      <sheetData refreshError="1" sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Margenes"/>
@@ -4102,26 +3896,26 @@
       <sheetName val="21-9-99"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData refreshError="1" sheetId="0"/>
+      <sheetData refreshError="1" sheetId="1"/>
+      <sheetData refreshError="1" sheetId="2"/>
+      <sheetData refreshError="1" sheetId="3"/>
+      <sheetData refreshError="1" sheetId="4"/>
+      <sheetData refreshError="1" sheetId="5"/>
+      <sheetData refreshError="1" sheetId="6"/>
+      <sheetData refreshError="1" sheetId="7"/>
+      <sheetData refreshError="1" sheetId="8"/>
+      <sheetData refreshError="1" sheetId="9"/>
+      <sheetData refreshError="1" sheetId="10"/>
+      <sheetData refreshError="1" sheetId="11"/>
+      <sheetData refreshError="1" sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Datos"/>
@@ -4214,7 +4008,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Datos"/>
@@ -4296,10 +4090,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4468,6 +4262,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -4494,24 +4289,25 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4572,2863 +4368,2856 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor theme="4" tint="0.59999389629810485"/>
+    <tabColor theme="4" tint="0.599993896298105"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A16" ySplit="15"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13" style="10" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="10" customWidth="1"/>
-    <col min="12" max="13" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="0" style="10" hidden="1"/>
-    <col min="15" max="16384" width="11.44140625" style="10" hidden="1"/>
+    <col min="1" max="1" width="7.441406" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.66406" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.55469" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.10938" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.66406" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.554688" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.886719" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.44141" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.66406" style="2" customWidth="1"/>
+    <col min="12" max="13" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578" style="2" hidden="1"/>
+    <col min="15" max="16384" width="11.44141" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="141" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="141"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="14" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="15"/>
+      <c r="J4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" s="1" customFormat="1">
       <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="12"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="17"/>
-    </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="11"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="20.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" s="1" customFormat="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" s="1" customFormat="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="19" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" s="1" customFormat="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="21" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" s="1" customFormat="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="143" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="143"/>
-      <c r="K12" s="144"/>
-    </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" thickBot="1" s="1" customFormat="1" ht="13.5">
+      <c r="A11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" s="1" customFormat="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" s="1" customFormat="1">
+      <c r="A13" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="85" t="s">
+      <c r="B13" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="C13" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="E13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="F13" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="G13" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="H13" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="145" t="s">
+      <c r="I13" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="J13" s="37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="K13" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="33" t="s">
+    </row>
+    <row r="14" s="1" customFormat="1">
+      <c r="A14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="B14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="C14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="31" t="s">
+      <c r="D14" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="146"/>
-      <c r="K14" s="32" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="34" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="31" t="s">
+      <c r="J14" s="43"/>
+      <c r="K14" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="147"/>
-      <c r="K15" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
+    </row>
+    <row r="15" s="1" customFormat="1">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="46">
         <v>1</v>
       </c>
-      <c r="B16" s="126">
+      <c r="B16" s="47">
         <v>38</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="37">
+      <c r="C16" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="49">
         <v>7792371070111</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="39" t="s">
+      <c r="E16" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42">
+      <c r="F16" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54">
         <f>ROUND(K16/1.7545*1.21,1)</f>
         <v>2354.3000000000002</v>
       </c>
-      <c r="J16" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="44">
+      <c r="J16" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="56">
         <v>3413.8024711922162</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" s="46">
         <v>2</v>
       </c>
-      <c r="B17" s="126">
+      <c r="B17" s="47">
         <v>38</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="37">
+      <c r="C17" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="49">
         <v>7792371070531</v>
       </c>
-      <c r="E17" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42">
+      <c r="E17" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54">
         <f>ROUND(K17/1.7545*1.21,1)</f>
         <v>3960.5</v>
       </c>
-      <c r="J17" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="44">
+      <c r="J17" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="56">
         <v>5742.6804077904053</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" s="46">
         <v>3</v>
       </c>
-      <c r="B18" s="126">
+      <c r="B18" s="47">
         <v>38</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="37">
+      <c r="C18" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="49">
         <v>7792371070128</v>
       </c>
-      <c r="E18" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42">
+      <c r="E18" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54">
         <f>ROUND(K18/1.7545*1.21,1)</f>
-        <v>4700.3</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="44">
+        <v>4700.3000000000002</v>
+      </c>
+      <c r="J18" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="56">
         <v>6815.4428206318544</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="46">
         <v>4</v>
       </c>
-      <c r="B19" s="126">
+      <c r="B19" s="47">
         <v>38</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="37">
+      <c r="C19" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="49">
         <v>7792371070234</v>
       </c>
-      <c r="E19" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42">
+      <c r="E19" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54">
         <f>ROUND(K19/1.7545*1.21,1)</f>
-        <v>6272.6</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="44">
+        <v>6272.6000000000004</v>
+      </c>
+      <c r="J19" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="56">
         <v>9095.2853063402836</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" s="46">
         <v>5</v>
       </c>
-      <c r="B20" s="126">
+      <c r="B20" s="47">
         <v>38</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="37">
+      <c r="C20" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="49">
         <v>7792371070227</v>
       </c>
-      <c r="E20" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42">
+      <c r="E20" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54">
         <f>ROUND(K20/1.7545*1.21,1)</f>
-        <v>12198.3</v>
-      </c>
-      <c r="J20" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="44">
+        <v>12198.299999999999</v>
+      </c>
+      <c r="J20" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="56">
         <v>17687.533646221804</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" s="46">
         <v>6</v>
       </c>
-      <c r="B21" s="126">
+      <c r="B21" s="47">
         <v>38</v>
       </c>
-      <c r="C21" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="46">
+      <c r="C21" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="58">
         <v>7798260150285</v>
       </c>
-      <c r="E21" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51">
+      <c r="E21" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="63">
         <f>ROUND(K21/1.7545,1)</f>
         <v>2106.5</v>
       </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53">
+      <c r="J21" s="64"/>
+      <c r="K21" s="65">
         <v>3695.9132319619912</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" s="46">
         <v>7</v>
       </c>
-      <c r="B22" s="126">
+      <c r="B22" s="47">
         <v>38</v>
       </c>
-      <c r="C22" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="55">
+      <c r="C22" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="67">
         <v>7798260150292</v>
       </c>
-      <c r="E22" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="51">
+      <c r="E22" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="70"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="63">
         <f t="shared" ref="I22:I29" si="0">ROUND(K22/1.7545,1)</f>
-        <v>2814.7</v>
-      </c>
-      <c r="J22" s="60"/>
-      <c r="K22" s="61">
+        <v>2814.6999999999998</v>
+      </c>
+      <c r="J22" s="72"/>
+      <c r="K22" s="73">
         <v>4938.4773537995998</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
+    <row r="23" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="46">
         <v>8</v>
       </c>
-      <c r="B23" s="126">
+      <c r="B23" s="47">
         <v>38</v>
       </c>
-      <c r="C23" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="55">
+      <c r="C23" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="67">
         <v>7798260150513</v>
       </c>
-      <c r="E23" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="51">
+      <c r="E23" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="70"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="63">
         <f t="shared" si="0"/>
-        <v>43672.2</v>
-      </c>
-      <c r="J23" s="60"/>
-      <c r="K23" s="61">
+        <v>43672.199999999997</v>
+      </c>
+      <c r="J23" s="72"/>
+      <c r="K23" s="73">
         <v>76622.930096296186</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
+    <row r="24" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="46">
         <v>9</v>
       </c>
-      <c r="B24" s="126">
+      <c r="B24" s="47">
         <v>38</v>
       </c>
-      <c r="C24" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="55">
+      <c r="C24" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="67">
         <v>7798260150391</v>
       </c>
-      <c r="E24" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="51">
+      <c r="E24" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="63">
         <f t="shared" si="0"/>
-        <v>116535.6</v>
-      </c>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61">
+        <v>116535.60000000001</v>
+      </c>
+      <c r="J24" s="72"/>
+      <c r="K24" s="73">
         <v>204461.77771800131</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" s="46">
         <v>10</v>
       </c>
-      <c r="B25" s="126">
+      <c r="B25" s="47">
         <v>38</v>
       </c>
-      <c r="C25" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="55">
+      <c r="C25" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="67">
         <v>7798260150407</v>
       </c>
-      <c r="E25" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="51">
+      <c r="E25" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="70"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="63">
         <f t="shared" si="0"/>
         <v>178434.5</v>
       </c>
-      <c r="J25" s="60"/>
-      <c r="K25" s="61">
+      <c r="J25" s="72"/>
+      <c r="K25" s="73">
         <v>313063.40202266339</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="46">
         <v>11</v>
       </c>
-      <c r="B26" s="126">
+      <c r="B26" s="47">
         <v>38</v>
       </c>
-      <c r="C26" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="55">
+      <c r="C26" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="67">
         <v>7798260150421</v>
       </c>
-      <c r="E26" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="51">
+      <c r="E26" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="70"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="63">
         <f t="shared" si="0"/>
-        <v>301768.7</v>
-      </c>
-      <c r="J26" s="60"/>
-      <c r="K26" s="61">
+        <v>301768.70000000001</v>
+      </c>
+      <c r="J26" s="72"/>
+      <c r="K26" s="73">
         <v>529453.14342872286</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="46">
         <v>12</v>
       </c>
-      <c r="B27" s="126">
+      <c r="B27" s="47">
         <v>38</v>
       </c>
-      <c r="C27" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="55">
+      <c r="C27" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="67">
         <v>7798260150414</v>
       </c>
-      <c r="E27" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="51">
+      <c r="E27" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="70"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="63">
         <f t="shared" ref="I27" si="1">ROUND(K27/1.7545,1)</f>
         <v>258567.5</v>
       </c>
-      <c r="J27" s="60"/>
-      <c r="K27" s="61">
+      <c r="J27" s="72"/>
+      <c r="K27" s="73">
         <v>453656.65197892417</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="46">
         <v>13</v>
       </c>
-      <c r="B28" s="136">
+      <c r="B28" s="74">
         <v>38</v>
       </c>
-      <c r="C28" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="46">
+      <c r="C28" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="58">
         <v>7798260150629</v>
       </c>
-      <c r="E28" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="137">
+      <c r="E28" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="61"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="75">
         <f t="shared" ref="I28" si="2">ROUND(K28/1.7545,1)</f>
         <v>258567.5</v>
       </c>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53">
+      <c r="J28" s="64"/>
+      <c r="K28" s="65">
         <v>453656.65197892417</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="46">
         <v>14</v>
       </c>
-      <c r="B29" s="126">
+      <c r="B29" s="47">
         <v>38</v>
       </c>
-      <c r="C29" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="55">
+      <c r="C29" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="67">
         <v>7798260150162</v>
       </c>
-      <c r="E29" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="51">
+      <c r="E29" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="70"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="63">
         <f t="shared" si="0"/>
         <v>26828.799999999999</v>
       </c>
-      <c r="J29" s="60"/>
-      <c r="K29" s="61">
+      <c r="J29" s="72"/>
+      <c r="K29" s="73">
         <v>47071.134144382093</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="46">
         <v>15</v>
       </c>
-      <c r="B30" s="126">
+      <c r="B30" s="47">
         <v>38</v>
       </c>
-      <c r="C30" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="37">
+      <c r="C30" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="49">
         <v>7790375001094</v>
       </c>
-      <c r="E30" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42">
+      <c r="E30" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="52"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="54">
         <f t="shared" ref="I30:I37" si="3">ROUND(K30/1.7545*1.21,1)</f>
         <v>26688</v>
       </c>
-      <c r="J30" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="44">
+      <c r="J30" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="56">
         <v>38697.622160847124</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" s="46">
         <v>16</v>
       </c>
-      <c r="B31" s="126">
+      <c r="B31" s="47">
         <v>38</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="37">
+      <c r="C31" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="49">
         <v>7790375001063</v>
       </c>
-      <c r="E31" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="40"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="42">
+      <c r="E31" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="54">
         <f t="shared" si="3"/>
         <v>86279.5</v>
       </c>
-      <c r="J31" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="44">
+      <c r="J31" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="56">
         <v>125105.32095239674</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" s="46">
         <v>17</v>
       </c>
-      <c r="B32" s="126">
+      <c r="B32" s="47">
         <v>38</v>
       </c>
-      <c r="C32" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="37">
+      <c r="C32" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="49">
         <v>7790375001070</v>
       </c>
-      <c r="E32" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42">
+      <c r="E32" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="54">
         <f t="shared" si="3"/>
         <v>124270.5</v>
       </c>
-      <c r="J32" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="44">
+      <c r="J32" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="56">
         <v>180192.18571100742</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" s="46">
         <v>18</v>
       </c>
-      <c r="B33" s="126">
+      <c r="B33" s="47">
         <v>38</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="37">
+      <c r="C33" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="49">
         <v>7790375001087</v>
       </c>
-      <c r="E33" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42">
+      <c r="E33" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="54">
         <f t="shared" si="3"/>
         <v>164214.20000000001</v>
       </c>
-      <c r="J33" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33" s="44">
+      <c r="J33" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="56">
         <v>238110.62983864339</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" s="46">
         <v>19</v>
       </c>
-      <c r="B34" s="126">
+      <c r="B34" s="47">
         <v>38</v>
       </c>
-      <c r="C34" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="37">
+      <c r="C34" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="49">
         <v>7790375001148</v>
       </c>
-      <c r="E34" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42">
+      <c r="E34" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="52"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="54">
         <f t="shared" si="3"/>
-        <v>57266.1</v>
-      </c>
-      <c r="J34" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K34" s="44">
+        <v>57266.099999999999</v>
+      </c>
+      <c r="J34" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="56">
         <v>83035.886650691071</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35">
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" s="46">
         <v>20</v>
       </c>
-      <c r="B35" s="126">
+      <c r="B35" s="47">
         <v>38</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="37">
+      <c r="C35" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="49">
         <v>7790375001162</v>
       </c>
-      <c r="E35" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="42">
+      <c r="E35" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="52"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="54">
         <f t="shared" si="3"/>
         <v>112383.5</v>
       </c>
-      <c r="J35" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" s="44">
+      <c r="J35" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" s="56">
         <v>162956.06216742247</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" s="46">
         <v>21</v>
       </c>
-      <c r="B36" s="126">
+      <c r="B36" s="47">
         <v>38</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="37">
+      <c r="C36" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="49">
         <v>7790375001179</v>
       </c>
-      <c r="E36" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="40"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="42">
+      <c r="E36" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="54">
         <f t="shared" si="3"/>
         <v>145930.79999999999</v>
       </c>
-      <c r="J36" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="44">
+      <c r="J36" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="56">
         <v>211599.61063696552</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35">
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" s="46">
         <v>22</v>
       </c>
-      <c r="B37" s="126">
+      <c r="B37" s="47">
         <v>38</v>
       </c>
-      <c r="C37" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="37">
+      <c r="C37" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="49">
         <v>7790375001186</v>
       </c>
-      <c r="E37" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="42">
+      <c r="E37" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="52"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="54">
         <f t="shared" si="3"/>
         <v>179478</v>
       </c>
-      <c r="J37" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37" s="44">
+      <c r="J37" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="56">
         <v>260243.15910650857</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35">
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" s="46">
         <v>23</v>
       </c>
-      <c r="B38" s="126">
+      <c r="B38" s="47">
         <v>38</v>
       </c>
-      <c r="C38" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="55">
+      <c r="C38" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="67">
         <v>7798260150308</v>
       </c>
-      <c r="E38" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="58"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="51">
+      <c r="E38" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="70"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="63">
         <f t="shared" ref="I38:I43" si="4">ROUND(K38/1.7545,1)</f>
         <v>2095</v>
       </c>
-      <c r="J38" s="60"/>
-      <c r="K38" s="61">
+      <c r="J38" s="72"/>
+      <c r="K38" s="73">
         <v>3675.7383681466627</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35">
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" s="46">
         <v>24</v>
       </c>
-      <c r="B39" s="126">
+      <c r="B39" s="47">
         <v>38</v>
       </c>
-      <c r="C39" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="55">
+      <c r="C39" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="67">
         <v>7798260150315</v>
       </c>
-      <c r="E39" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39" s="58"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="51">
+      <c r="E39" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="70"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="63">
         <f t="shared" si="4"/>
-        <v>3412.6</v>
-      </c>
-      <c r="J39" s="60"/>
-      <c r="K39" s="61">
+        <v>3412.5999999999999</v>
+      </c>
+      <c r="J39" s="72"/>
+      <c r="K39" s="73">
         <v>5987.3943049074023</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35">
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" s="46">
         <v>25</v>
       </c>
-      <c r="B40" s="126">
+      <c r="B40" s="47">
         <v>38</v>
       </c>
-      <c r="C40" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="55">
+      <c r="C40" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="67">
         <v>7798260150131</v>
       </c>
-      <c r="E40" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="58"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="51">
+      <c r="E40" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="70"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="63">
         <f t="shared" si="4"/>
-        <v>941.9</v>
-      </c>
-      <c r="J40" s="63"/>
-      <c r="K40" s="61">
+        <v>941.89999999999998</v>
+      </c>
+      <c r="J40" s="77"/>
+      <c r="K40" s="73">
         <v>1652.5149446433663</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35">
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" s="46">
         <v>26</v>
       </c>
-      <c r="B41" s="126">
+      <c r="B41" s="47">
         <v>38</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="67">
+        <v>7798260150087</v>
+      </c>
+      <c r="E41" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="55">
-        <v>7798260150087</v>
-      </c>
-      <c r="E41" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" s="58"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="51">
+      <c r="F41" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="70"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="63">
         <f t="shared" si="4"/>
         <v>916.5</v>
       </c>
-      <c r="J41" s="63"/>
-      <c r="K41" s="61">
+      <c r="J41" s="77"/>
+      <c r="K41" s="73">
         <v>1608.0241576721987</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="35">
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" s="46">
         <v>27</v>
       </c>
-      <c r="B42" s="126">
+      <c r="B42" s="47">
         <v>38</v>
       </c>
-      <c r="C42" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="55">
+      <c r="C42" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="67">
         <v>7798260150070</v>
       </c>
-      <c r="E42" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="G42" s="58"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="51">
+      <c r="E42" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="70"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="63">
         <f t="shared" si="4"/>
         <v>1028.8</v>
       </c>
-      <c r="J42" s="63"/>
-      <c r="K42" s="61">
+      <c r="J42" s="77"/>
+      <c r="K42" s="73">
         <v>1805.0547856873698</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="35">
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" s="46">
         <v>28</v>
       </c>
-      <c r="B43" s="126">
+      <c r="B43" s="47">
         <v>38</v>
       </c>
-      <c r="C43" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="55">
+      <c r="C43" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="67">
         <v>7798260150155</v>
       </c>
-      <c r="E43" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="F43" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="G43" s="58"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="51">
+      <c r="E43" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" s="70"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="63">
         <f t="shared" si="4"/>
         <v>916.5</v>
       </c>
-      <c r="J43" s="63"/>
-      <c r="K43" s="61">
+      <c r="J43" s="77"/>
+      <c r="K43" s="73">
         <v>1608.0241576721987</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="35">
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" s="46">
         <v>29</v>
       </c>
-      <c r="B44" s="126">
+      <c r="B44" s="47">
         <v>38</v>
       </c>
-      <c r="C44" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="55">
+      <c r="C44" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="67">
         <v>7798260150278</v>
       </c>
-      <c r="E44" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="G44" s="58"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="51">
+      <c r="E44" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" s="70"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="63">
         <f>ROUND(K44/1.7545,1)</f>
-        <v>873337.9</v>
-      </c>
-      <c r="J44" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="K44" s="61">
+        <v>873337.90000000002</v>
+      </c>
+      <c r="J44" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="K44" s="73">
         <v>1532271.3902178654</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="35">
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" s="46">
         <v>30</v>
       </c>
-      <c r="B45" s="126">
+      <c r="B45" s="47">
         <v>38</v>
       </c>
-      <c r="C45" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="37">
+      <c r="C45" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="49">
         <v>7795312000536</v>
       </c>
-      <c r="E45" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="F45" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="G45" s="40"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="42">
+      <c r="E45" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="52"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="54">
         <f>ROUND(K45/1.7545*1.21,1)</f>
         <v>1247525.5</v>
       </c>
-      <c r="J45" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" s="44">
+      <c r="J45" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="56">
         <v>1808911.9171059744</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="35">
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" s="46">
         <v>31</v>
       </c>
-      <c r="B46" s="126">
+      <c r="B46" s="47">
         <v>38</v>
       </c>
-      <c r="C46" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="55">
+      <c r="C46" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="67">
         <v>7798260150360</v>
       </c>
-      <c r="E46" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" s="58"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="51">
+      <c r="E46" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="70"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="63">
         <f t="shared" ref="I46:I55" si="5">ROUND(K46/1.7545,1)</f>
         <v>2538.5</v>
       </c>
-      <c r="J46" s="63"/>
-      <c r="K46" s="61">
+      <c r="J46" s="77"/>
+      <c r="K46" s="73">
         <v>4453.8455671493812</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="35">
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" s="46">
         <v>32</v>
       </c>
-      <c r="B47" s="126">
+      <c r="B47" s="47">
         <v>38</v>
       </c>
-      <c r="C47" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="55">
+      <c r="C47" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="67">
         <v>7798260150018</v>
       </c>
-      <c r="E47" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="G47" s="58"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="51">
+      <c r="E47" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="70"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="63">
         <f t="shared" si="5"/>
         <v>2538.5</v>
       </c>
-      <c r="J47" s="63"/>
-      <c r="K47" s="61">
+      <c r="J47" s="77"/>
+      <c r="K47" s="73">
         <v>4453.8455671493803</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="35">
+    <row r="48" ht="15" customHeight="1">
+      <c r="A48" s="46">
         <v>33</v>
       </c>
-      <c r="B48" s="126">
+      <c r="B48" s="47">
         <v>38</v>
       </c>
-      <c r="C48" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="55">
+      <c r="C48" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="67">
         <v>7798260150476</v>
       </c>
-      <c r="E48" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="58"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="51">
+      <c r="E48" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="70"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="63">
         <f t="shared" si="5"/>
-        <v>23626.6</v>
-      </c>
-      <c r="J48" s="63"/>
-      <c r="K48" s="61">
+        <v>23626.599999999999</v>
+      </c>
+      <c r="J48" s="77"/>
+      <c r="K48" s="73">
         <v>41452.892858699437</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="35">
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" s="46">
         <v>34</v>
       </c>
-      <c r="B49" s="126">
+      <c r="B49" s="47">
         <v>38</v>
       </c>
-      <c r="C49" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="55">
+      <c r="C49" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="67">
         <v>7798260150483</v>
       </c>
-      <c r="E49" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" s="58"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="51">
+      <c r="E49" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="70"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="63">
         <f t="shared" si="5"/>
         <v>71305.399999999994</v>
       </c>
-      <c r="J49" s="63"/>
-      <c r="K49" s="61">
+      <c r="J49" s="77"/>
+      <c r="K49" s="73">
         <v>125105.32095239674</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35">
+    <row r="50" ht="15" customHeight="1">
+      <c r="A50" s="46">
         <v>35</v>
       </c>
-      <c r="B50" s="126">
+      <c r="B50" s="47">
         <v>38</v>
       </c>
-      <c r="C50" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="55">
+      <c r="C50" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="67">
         <v>7798260150490</v>
       </c>
-      <c r="E50" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" s="58"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="51">
+      <c r="E50" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="70"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="63">
         <f t="shared" si="5"/>
-        <v>102702.9</v>
-      </c>
-      <c r="J50" s="63"/>
-      <c r="K50" s="61">
+        <v>102702.89999999999</v>
+      </c>
+      <c r="J50" s="77"/>
+      <c r="K50" s="73">
         <v>180192.18571100742</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35">
+    <row r="51" ht="15" customHeight="1">
+      <c r="A51" s="46">
         <v>36</v>
       </c>
-      <c r="B51" s="126">
+      <c r="B51" s="47">
         <v>38</v>
       </c>
-      <c r="C51" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="55">
+      <c r="C51" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="67">
         <v>7798260150506</v>
       </c>
-      <c r="E51" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F51" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" s="58"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="51">
+      <c r="E51" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="70"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="63">
         <f t="shared" si="5"/>
         <v>135714.20000000001</v>
       </c>
-      <c r="J51" s="63"/>
-      <c r="K51" s="61">
+      <c r="J51" s="77"/>
+      <c r="K51" s="73">
         <v>238110.62983864339</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="35">
+    <row r="52" ht="15" customHeight="1">
+      <c r="A52" s="46">
         <v>37</v>
       </c>
-      <c r="B52" s="126">
+      <c r="B52" s="47">
         <v>38</v>
       </c>
-      <c r="C52" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="55">
+      <c r="C52" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="67">
         <v>7798260150582</v>
       </c>
-      <c r="E52" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="G52" s="58"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="51">
+      <c r="E52" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="70"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="63">
         <f t="shared" si="5"/>
         <v>77765.5</v>
       </c>
-      <c r="J52" s="52"/>
-      <c r="K52" s="61">
+      <c r="J52" s="64"/>
+      <c r="K52" s="73">
         <v>136439.56889594311</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="35">
+    <row r="53" ht="15" customHeight="1">
+      <c r="A53" s="46">
         <v>38</v>
       </c>
-      <c r="B53" s="126">
+      <c r="B53" s="47">
         <v>38</v>
       </c>
-      <c r="C53" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="55">
+      <c r="C53" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="67">
         <v>7798260150469</v>
       </c>
-      <c r="E53" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G53" s="58"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="51">
+      <c r="E53" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="70"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="63">
         <f t="shared" si="5"/>
-        <v>47786.9</v>
-      </c>
-      <c r="J53" s="63"/>
-      <c r="K53" s="61">
+        <v>47786.900000000001</v>
+      </c>
+      <c r="J53" s="77"/>
+      <c r="K53" s="73">
         <v>83842.060307493884</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="35">
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" s="46">
         <v>39</v>
       </c>
-      <c r="B54" s="126">
+      <c r="B54" s="47">
         <v>38</v>
       </c>
-      <c r="C54" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="55">
+      <c r="C54" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="67">
         <v>7798260150438</v>
       </c>
-      <c r="E54" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" s="58"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="51">
+      <c r="E54" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" s="70"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="63">
         <f t="shared" si="5"/>
-        <v>93780.7</v>
-      </c>
-      <c r="J54" s="63"/>
-      <c r="K54" s="61">
+        <v>93780.699999999997</v>
+      </c>
+      <c r="J54" s="77"/>
+      <c r="K54" s="73">
         <v>164538.15985836834</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="35">
+    <row r="55" ht="15" customHeight="1">
+      <c r="A55" s="46">
         <v>40</v>
       </c>
-      <c r="B55" s="126">
+      <c r="B55" s="47">
         <v>38</v>
       </c>
-      <c r="C55" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="55">
+      <c r="C55" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="67">
         <v>7798260150445</v>
       </c>
-      <c r="E55" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" s="58"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="51">
+      <c r="E55" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" s="70"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="63">
         <f t="shared" si="5"/>
-        <v>121774.9</v>
-      </c>
-      <c r="J55" s="63"/>
-      <c r="K55" s="61">
+        <v>121774.89999999999</v>
+      </c>
+      <c r="J55" s="77"/>
+      <c r="K55" s="73">
         <v>213653.97578878072</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="35">
+    <row r="56" ht="15" customHeight="1">
+      <c r="A56" s="46">
         <v>41</v>
       </c>
-      <c r="B56" s="126">
+      <c r="B56" s="47">
         <v>38</v>
       </c>
-      <c r="C56" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" s="92">
+      <c r="C56" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="84">
         <v>7798260150452</v>
       </c>
-      <c r="E56" s="93" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" s="95"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="97">
+      <c r="E56" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="87"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="89">
         <f t="shared" ref="I56" si="6">ROUND(K56/1.7545,1)</f>
         <v>149769</v>
       </c>
-      <c r="J56" s="96"/>
-      <c r="K56" s="98">
+      <c r="J56" s="88"/>
+      <c r="K56" s="90">
         <v>262769.7917191931</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="35">
+    <row r="57" ht="15" customHeight="1">
+      <c r="A57" s="46">
         <v>42</v>
       </c>
-      <c r="B57" s="126">
+      <c r="B57" s="47">
         <v>38</v>
       </c>
-      <c r="C57" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="100">
+      <c r="C57" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="92">
         <v>7795302058462</v>
       </c>
-      <c r="E57" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="F57" s="101" t="s">
-        <v>96</v>
-      </c>
-      <c r="G57" s="102"/>
-      <c r="H57" s="103"/>
-      <c r="I57" s="42">
+      <c r="E57" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" s="94"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="54">
         <f t="shared" ref="I57:I62" si="7">ROUND(K57/1.7545*1.21,1)</f>
-        <v>17217.3</v>
-      </c>
-      <c r="J57" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="K57" s="105">
+        <v>17217.299999999999</v>
+      </c>
+      <c r="J57" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="K57" s="97">
         <v>24965.067712925225</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="35">
+    <row r="58" ht="15" customHeight="1">
+      <c r="A58" s="46">
         <v>43</v>
       </c>
-      <c r="B58" s="126">
+      <c r="B58" s="47">
         <v>38</v>
       </c>
-      <c r="C58" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="37">
+      <c r="C58" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="49">
         <v>7798047984126</v>
       </c>
-      <c r="E58" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="F58" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="G58" s="40"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="42">
+      <c r="E58" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G58" s="52"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="54">
         <f t="shared" si="7"/>
-        <v>328406.2</v>
-      </c>
-      <c r="J58" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K58" s="44">
+        <v>328406.20000000001</v>
+      </c>
+      <c r="J58" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" s="56">
         <v>476188.91930791026</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="35">
+    <row r="59" ht="15" customHeight="1">
+      <c r="A59" s="46">
         <v>44</v>
       </c>
-      <c r="B59" s="126">
+      <c r="B59" s="47">
         <v>38</v>
       </c>
-      <c r="C59" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="108">
+      <c r="C59" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="99">
         <v>7798047984133</v>
       </c>
-      <c r="E59" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="F59" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="G59" s="111"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="42">
+      <c r="E59" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="G59" s="102"/>
+      <c r="H59" s="103"/>
+      <c r="I59" s="54">
         <f t="shared" si="7"/>
         <v>554054.5</v>
       </c>
-      <c r="J59" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="K59" s="114">
+      <c r="J59" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59" s="105">
         <v>803379.01049939659</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="35">
+    <row r="60" ht="15" customHeight="1">
+      <c r="A60" s="46">
         <v>45</v>
       </c>
-      <c r="B60" s="126">
+      <c r="B60" s="47">
         <v>38</v>
       </c>
-      <c r="C60" s="107" t="s">
+      <c r="C60" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="99">
+        <v>7792371026224</v>
+      </c>
+      <c r="E60" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="108">
-        <v>7792371026224</v>
-      </c>
-      <c r="E60" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="F60" s="110" t="s">
-        <v>107</v>
-      </c>
-      <c r="G60" s="111"/>
-      <c r="H60" s="112"/>
-      <c r="I60" s="42">
+      <c r="F60" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="G60" s="102"/>
+      <c r="H60" s="103"/>
+      <c r="I60" s="54">
         <f t="shared" si="7"/>
-        <v>25400.2</v>
-      </c>
-      <c r="J60" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="K60" s="114">
+        <v>25400.200000000001</v>
+      </c>
+      <c r="J60" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" s="105">
         <v>36830.258557637993</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="35">
+    <row r="61" ht="15" customHeight="1">
+      <c r="A61" s="46">
         <v>46</v>
       </c>
-      <c r="B61" s="126">
+      <c r="B61" s="47">
         <v>38</v>
       </c>
-      <c r="C61" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="D61" s="108">
+      <c r="C61" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="99">
         <v>7798021440259</v>
       </c>
-      <c r="E61" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="F61" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="G61" s="111"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="42">
+      <c r="E61" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="102"/>
+      <c r="H61" s="103"/>
+      <c r="I61" s="54">
         <f t="shared" si="7"/>
         <v>2281993</v>
       </c>
-      <c r="J61" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="K61" s="114">
+      <c r="J61" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" s="105">
         <v>3308889.7930715042</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="35">
+    <row r="62" ht="15" customHeight="1">
+      <c r="A62" s="46">
         <v>47</v>
       </c>
-      <c r="B62" s="126">
+      <c r="B62" s="47">
         <v>38</v>
       </c>
-      <c r="C62" s="107" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="108">
+      <c r="C62" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="99">
         <v>7792371477798</v>
       </c>
-      <c r="E62" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="F62" s="110" t="s">
-        <v>133</v>
-      </c>
-      <c r="G62" s="111"/>
-      <c r="H62" s="112"/>
-      <c r="I62" s="42">
+      <c r="E62" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="G62" s="102"/>
+      <c r="H62" s="103"/>
+      <c r="I62" s="54">
         <f t="shared" si="7"/>
         <v>1890603</v>
       </c>
-      <c r="J62" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="K62" s="114">
+      <c r="J62" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" s="105">
         <v>2741374.3023971813</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="35">
+    <row r="63" ht="15" customHeight="1">
+      <c r="A63" s="46">
         <v>48</v>
       </c>
-      <c r="B63" s="126">
+      <c r="B63" s="47">
         <v>38</v>
       </c>
-      <c r="C63" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="46">
+      <c r="C63" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="58">
         <v>7798260150599</v>
       </c>
-      <c r="E63" s="134" t="s">
-        <v>97</v>
-      </c>
-      <c r="F63" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="G63" s="58"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="51">
+      <c r="E63" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" s="70"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="63">
         <f t="shared" ref="I63:I64" si="8">ROUND(K63/1.7545,1)</f>
         <v>271410</v>
       </c>
-      <c r="J63" s="52"/>
-      <c r="K63" s="53">
+      <c r="J63" s="64"/>
+      <c r="K63" s="65">
         <v>476188.91930791026</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="35">
+    <row r="64" ht="15" customHeight="1">
+      <c r="A64" s="46">
         <v>49</v>
       </c>
-      <c r="B64" s="126">
+      <c r="B64" s="47">
         <v>38</v>
       </c>
-      <c r="C64" s="128" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64" s="129">
+      <c r="C64" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="109">
         <v>7798260150605</v>
       </c>
-      <c r="E64" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="F64" s="131" t="s">
-        <v>103</v>
-      </c>
-      <c r="G64" s="58"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="51">
+      <c r="E64" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="G64" s="70"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="63">
         <f t="shared" si="8"/>
-        <v>457896.3</v>
-      </c>
-      <c r="J64" s="133"/>
-      <c r="K64" s="135">
+        <v>457896.29999999999</v>
+      </c>
+      <c r="J64" s="112"/>
+      <c r="K64" s="113">
         <v>803379.01049939659</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="35">
+    <row r="65" ht="15" customHeight="1">
+      <c r="A65" s="46">
         <v>50</v>
       </c>
-      <c r="B65" s="127">
+      <c r="B65" s="114">
         <v>38</v>
       </c>
-      <c r="C65" s="107" t="s">
-        <v>142</v>
-      </c>
-      <c r="D65" s="108">
+      <c r="C65" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="99">
         <v>7792371177650</v>
       </c>
-      <c r="E65" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="F65" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="G65" s="40"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="42">
+      <c r="E65" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="G65" s="52"/>
+      <c r="H65" s="82"/>
+      <c r="I65" s="54">
         <f t="shared" ref="I65" si="9">ROUND(K65/1.7545*1.21,1)</f>
         <v>870049</v>
       </c>
-      <c r="J65" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="K65" s="114">
+      <c r="J65" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" s="105">
         <v>1261571.0257399261</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="35">
+    <row r="66" ht="15" customHeight="1">
+      <c r="A66" s="46">
         <v>51</v>
       </c>
-      <c r="B66" s="127">
+      <c r="B66" s="114">
         <v>77</v>
       </c>
-      <c r="C66" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="D66" s="55">
+      <c r="C66" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="67">
         <v>7798260150520</v>
       </c>
-      <c r="E66" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="F66" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" s="58"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="51">
+      <c r="E66" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="F66" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="G66" s="70"/>
+      <c r="H66" s="107"/>
+      <c r="I66" s="63">
         <f>ROUND(K66/1.7545,1)</f>
-        <v>965311.9</v>
-      </c>
-      <c r="J66" s="52"/>
-      <c r="K66" s="53">
+        <v>965311.90000000002</v>
+      </c>
+      <c r="J66" s="64"/>
+      <c r="K66" s="65">
         <v>1693639.6837299359</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="35">
+    <row r="67" ht="15" customHeight="1">
+      <c r="A67" s="46">
         <v>52</v>
       </c>
-      <c r="B67" s="127">
+      <c r="B67" s="114">
         <v>77</v>
       </c>
-      <c r="C67" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="D67" s="129">
+      <c r="C67" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="109">
         <v>7798260150544</v>
       </c>
-      <c r="E67" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="F67" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="58"/>
-      <c r="H67" s="132"/>
-      <c r="I67" s="51">
+      <c r="E67" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="70"/>
+      <c r="H67" s="115"/>
+      <c r="I67" s="63">
         <f t="shared" ref="I67:I77" si="10">ROUND(K67/1.7545,1)</f>
-        <v>3273.1</v>
-      </c>
-      <c r="J67" s="133"/>
-      <c r="K67" s="53">
+        <v>3273.0999999999999</v>
+      </c>
+      <c r="J67" s="112"/>
+      <c r="K67" s="65">
         <v>5742.6804077904053</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="35">
+    <row r="68" ht="15" customHeight="1">
+      <c r="A68" s="46">
         <v>53</v>
       </c>
-      <c r="B68" s="127">
+      <c r="B68" s="114">
         <v>77</v>
       </c>
-      <c r="C68" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="D68" s="129">
+      <c r="C68" s="108" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="109">
         <v>7798260150568</v>
       </c>
-      <c r="E68" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="131" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" s="58"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="51">
+      <c r="E68" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" s="70"/>
+      <c r="H68" s="115"/>
+      <c r="I68" s="63">
         <f t="shared" si="10"/>
         <v>5184</v>
       </c>
-      <c r="J68" s="133"/>
-      <c r="K68" s="61">
+      <c r="J68" s="112"/>
+      <c r="K68" s="73">
         <v>9095.2853063402836</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="35">
+    <row r="69" ht="15" customHeight="1">
+      <c r="A69" s="46">
         <v>54</v>
       </c>
-      <c r="B69" s="127">
+      <c r="B69" s="114">
         <v>77</v>
       </c>
-      <c r="C69" s="128" t="s">
-        <v>117</v>
-      </c>
-      <c r="D69" s="129">
+      <c r="C69" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="109">
         <v>7798260150575</v>
       </c>
-      <c r="E69" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="F69" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="G69" s="58"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="51">
+      <c r="E69" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="G69" s="70"/>
+      <c r="H69" s="115"/>
+      <c r="I69" s="63">
         <f t="shared" si="10"/>
         <v>10081.200000000001</v>
       </c>
-      <c r="J69" s="133"/>
-      <c r="K69" s="61">
+      <c r="J69" s="112"/>
+      <c r="K69" s="73">
         <v>17687.533646221804</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="35">
+    <row r="70" ht="15" customHeight="1">
+      <c r="A70" s="46">
         <v>55</v>
       </c>
-      <c r="B70" s="127">
+      <c r="B70" s="114">
         <v>77</v>
       </c>
-      <c r="C70" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="D70" s="129">
+      <c r="C70" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" s="109">
         <v>7798260150612</v>
       </c>
-      <c r="E70" s="134" t="s">
-        <v>97</v>
-      </c>
-      <c r="F70" s="131" t="s">
-        <v>119</v>
-      </c>
-      <c r="G70" s="58"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="51">
+      <c r="E70" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="F70" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="G70" s="70"/>
+      <c r="H70" s="115"/>
+      <c r="I70" s="63">
         <f t="shared" si="10"/>
-        <v>14229.2</v>
-      </c>
-      <c r="J70" s="133"/>
-      <c r="K70" s="61">
+        <v>14229.200000000001</v>
+      </c>
+      <c r="J70" s="112"/>
+      <c r="K70" s="73">
         <v>24965.067712925225</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="35">
+    <row r="71" ht="15" customHeight="1">
+      <c r="A71" s="46">
         <v>56</v>
       </c>
-      <c r="B71" s="127">
+      <c r="B71" s="114">
         <v>77</v>
       </c>
-      <c r="C71" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="D71" s="129">
+      <c r="C71" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" s="109">
         <v>7798260150704</v>
       </c>
-      <c r="E71" s="134" t="s">
-        <v>97</v>
-      </c>
-      <c r="F71" s="131" t="s">
-        <v>107</v>
-      </c>
-      <c r="G71" s="58"/>
-      <c r="H71" s="132"/>
-      <c r="I71" s="51">
+      <c r="E71" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="F71" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="G71" s="70"/>
+      <c r="H71" s="115"/>
+      <c r="I71" s="63">
         <f t="shared" si="10"/>
-        <v>20991.9</v>
-      </c>
-      <c r="J71" s="133"/>
-      <c r="K71" s="61">
+        <v>20991.900000000001</v>
+      </c>
+      <c r="J71" s="112"/>
+      <c r="K71" s="73">
         <v>36830.258557637993</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="35">
+    <row r="72" ht="15" customHeight="1">
+      <c r="A72" s="46">
         <v>57</v>
       </c>
-      <c r="B72" s="127">
+      <c r="B72" s="114">
         <v>77</v>
       </c>
-      <c r="C72" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="D72" s="129">
+      <c r="C72" s="108" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="109">
         <v>7798260150636</v>
       </c>
-      <c r="E72" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="F72" s="131" t="s">
-        <v>121</v>
-      </c>
-      <c r="G72" s="58"/>
-      <c r="H72" s="132"/>
-      <c r="I72" s="51">
+      <c r="E72" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="111" t="s">
+        <v>130</v>
+      </c>
+      <c r="G72" s="70"/>
+      <c r="H72" s="115"/>
+      <c r="I72" s="63">
         <f t="shared" si="10"/>
-        <v>5941.4</v>
-      </c>
-      <c r="J72" s="133"/>
-      <c r="K72" s="61">
+        <v>5941.3999999999996</v>
+      </c>
+      <c r="J72" s="112"/>
+      <c r="K72" s="73">
         <v>10424.185003948594</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="35">
+    <row r="73" ht="15" customHeight="1">
+      <c r="A73" s="46">
         <v>58</v>
       </c>
-      <c r="B73" s="127">
+      <c r="B73" s="114">
         <v>77</v>
       </c>
-      <c r="C73" s="128" t="s">
-        <v>128</v>
-      </c>
-      <c r="D73" s="129">
+      <c r="C73" s="108" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="109">
         <v>7798260150643</v>
       </c>
-      <c r="E73" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="F73" s="131" t="s">
-        <v>122</v>
-      </c>
-      <c r="G73" s="58"/>
-      <c r="H73" s="132"/>
-      <c r="I73" s="51">
+      <c r="E73" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="111" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" s="70"/>
+      <c r="H73" s="115"/>
+      <c r="I73" s="63">
         <f t="shared" si="10"/>
-        <v>7527.7</v>
-      </c>
-      <c r="J73" s="133"/>
-      <c r="K73" s="61">
+        <v>7527.6999999999998</v>
+      </c>
+      <c r="J73" s="112"/>
+      <c r="K73" s="73">
         <v>13207.305701214345</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="35">
+    <row r="74" ht="15" customHeight="1">
+      <c r="A74" s="46">
         <v>59</v>
       </c>
-      <c r="B74" s="127">
+      <c r="B74" s="114">
         <v>77</v>
       </c>
-      <c r="C74" s="128" t="s">
-        <v>129</v>
-      </c>
-      <c r="D74" s="129">
+      <c r="C74" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" s="109">
         <v>7798260150650</v>
       </c>
-      <c r="E74" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74" s="131" t="s">
-        <v>123</v>
-      </c>
-      <c r="G74" s="58"/>
-      <c r="H74" s="132"/>
-      <c r="I74" s="51">
+      <c r="E74" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="G74" s="70"/>
+      <c r="H74" s="115"/>
+      <c r="I74" s="63">
         <f t="shared" si="10"/>
         <v>8625.2000000000007</v>
       </c>
-      <c r="J74" s="133"/>
-      <c r="K74" s="61">
+      <c r="J74" s="112"/>
+      <c r="K74" s="73">
         <v>15132.842800300301</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="35">
+    <row r="75" ht="15" customHeight="1">
+      <c r="A75" s="46">
         <v>60</v>
       </c>
-      <c r="B75" s="127">
+      <c r="B75" s="114">
         <v>77</v>
       </c>
-      <c r="C75" s="128" t="s">
-        <v>130</v>
-      </c>
-      <c r="D75" s="129">
+      <c r="C75" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="109">
         <v>7798260150667</v>
       </c>
-      <c r="E75" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="F75" s="131" t="s">
-        <v>124</v>
-      </c>
-      <c r="G75" s="58"/>
-      <c r="H75" s="132"/>
-      <c r="I75" s="51">
+      <c r="E75" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="G75" s="70"/>
+      <c r="H75" s="115"/>
+      <c r="I75" s="63">
         <f t="shared" si="10"/>
-        <v>6249.1</v>
-      </c>
-      <c r="J75" s="133"/>
-      <c r="K75" s="61">
+        <v>6249.1000000000004</v>
+      </c>
+      <c r="J75" s="112"/>
+      <c r="K75" s="73">
         <v>10964.03878424028</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="35">
+    <row r="76" ht="15" customHeight="1">
+      <c r="A76" s="46">
         <v>61</v>
       </c>
-      <c r="B76" s="127">
+      <c r="B76" s="114">
         <v>77</v>
       </c>
-      <c r="C76" s="128" t="s">
-        <v>131</v>
-      </c>
-      <c r="D76" s="129">
+      <c r="C76" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="109">
         <v>7798260150674</v>
       </c>
-      <c r="E76" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="131" t="s">
-        <v>125</v>
-      </c>
-      <c r="G76" s="58"/>
-      <c r="H76" s="132"/>
-      <c r="I76" s="51">
+      <c r="E76" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="111" t="s">
+        <v>138</v>
+      </c>
+      <c r="G76" s="70"/>
+      <c r="H76" s="115"/>
+      <c r="I76" s="63">
         <f t="shared" si="10"/>
-        <v>8029.2</v>
-      </c>
-      <c r="J76" s="133"/>
-      <c r="K76" s="61">
+        <v>8029.1999999999998</v>
+      </c>
+      <c r="J76" s="112"/>
+      <c r="K76" s="73">
         <v>14087.194247285501</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="35">
+    <row r="77" ht="15" customHeight="1">
+      <c r="A77" s="46">
         <v>62</v>
       </c>
-      <c r="B77" s="127">
+      <c r="B77" s="114">
         <v>77</v>
       </c>
-      <c r="C77" s="128" t="s">
-        <v>132</v>
-      </c>
-      <c r="D77" s="129">
+      <c r="C77" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="109">
         <v>7798260150681</v>
       </c>
-      <c r="E77" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" s="131" t="s">
-        <v>126</v>
-      </c>
-      <c r="G77" s="58"/>
-      <c r="H77" s="132"/>
-      <c r="I77" s="51">
+      <c r="E77" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" s="70"/>
+      <c r="H77" s="115"/>
+      <c r="I77" s="63">
         <f t="shared" si="10"/>
         <v>8653.7000000000007</v>
       </c>
-      <c r="J77" s="133"/>
-      <c r="K77" s="61">
+      <c r="J77" s="112"/>
+      <c r="K77" s="73">
         <v>15182.913243492114</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="35">
+    <row r="78" ht="15" customHeight="1">
+      <c r="A78" s="46">
         <v>63</v>
       </c>
-      <c r="B78" s="127">
+      <c r="B78" s="114">
         <v>77</v>
       </c>
-      <c r="C78" s="128" t="s">
-        <v>135</v>
-      </c>
-      <c r="D78" s="129">
+      <c r="C78" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="109">
         <v>7798260150728</v>
       </c>
-      <c r="E78" s="130" t="s">
-        <v>110</v>
+      <c r="E78" s="110" t="s">
+        <v>86</v>
       </c>
       <c r="F78" t="s">
-        <v>109</v>
-      </c>
-      <c r="G78" s="95"/>
-      <c r="H78" s="132"/>
-      <c r="I78" s="51">
+        <v>115</v>
+      </c>
+      <c r="G78" s="87"/>
+      <c r="H78" s="115"/>
+      <c r="I78" s="63">
         <f t="shared" ref="I78" si="11">ROUND(K78/1.7545,1)</f>
-        <v>1885944.6</v>
-      </c>
-      <c r="J78" s="133"/>
-      <c r="K78" s="61">
+        <v>1885944.6000000001</v>
+      </c>
+      <c r="J78" s="112"/>
+      <c r="K78" s="73">
         <v>3308889.7930715042</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="35">
+    <row r="79" ht="15" customHeight="1">
+      <c r="A79" s="46">
         <v>64</v>
       </c>
-      <c r="B79" s="127">
+      <c r="B79" s="114">
         <v>77</v>
       </c>
-      <c r="C79" s="128" t="s">
-        <v>136</v>
-      </c>
-      <c r="D79" s="129">
+      <c r="C79" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" s="109">
         <v>7798260150711</v>
       </c>
-      <c r="E79" s="130" t="s">
-        <v>27</v>
+      <c r="E79" s="110" t="s">
+        <v>28</v>
       </c>
       <c r="F79" t="s">
-        <v>137</v>
-      </c>
-      <c r="G79" s="95"/>
-      <c r="H79" s="132"/>
-      <c r="I79" s="51">
+        <v>143</v>
+      </c>
+      <c r="G79" s="87"/>
+      <c r="H79" s="115"/>
+      <c r="I79" s="63">
         <f t="shared" ref="I79:I81" si="12">ROUND(K79/1.7545,1)</f>
         <v>9946.7000000000007</v>
       </c>
-      <c r="J79" s="133"/>
-      <c r="K79" s="61">
+      <c r="J79" s="112"/>
+      <c r="K79" s="73">
         <v>17451.526273340158</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="138">
+    <row r="80" ht="15" customHeight="1">
+      <c r="A80" s="116">
         <v>65</v>
       </c>
-      <c r="B80" s="127">
+      <c r="B80" s="114">
         <v>77</v>
       </c>
-      <c r="C80" s="128" t="s">
-        <v>143</v>
-      </c>
-      <c r="D80" s="129">
+      <c r="C80" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="D80" s="109">
         <v>7798260150742</v>
       </c>
-      <c r="E80" s="130" t="s">
-        <v>110</v>
-      </c>
-      <c r="F80" s="131" t="s">
-        <v>141</v>
-      </c>
-      <c r="G80" s="95"/>
-      <c r="H80" s="132"/>
-      <c r="I80" s="51">
+      <c r="E80" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="F80" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="G80" s="87"/>
+      <c r="H80" s="115"/>
+      <c r="I80" s="63">
         <f t="shared" si="12"/>
-        <v>726029.8</v>
-      </c>
-      <c r="J80" s="133"/>
-      <c r="K80" s="98">
+        <v>726029.80000000005</v>
+      </c>
+      <c r="J80" s="112"/>
+      <c r="K80" s="90">
         <v>1273819.2881257511</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="35">
+    <row r="81" ht="15" customHeight="1">
+      <c r="A81" s="46">
         <v>66</v>
       </c>
-      <c r="B81" s="127">
+      <c r="B81" s="114">
         <v>77</v>
       </c>
-      <c r="C81" s="128" t="s">
-        <v>144</v>
-      </c>
-      <c r="D81" s="139">
+      <c r="C81" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="117">
         <v>7798260150735</v>
       </c>
-      <c r="E81" s="130" t="s">
-        <v>110</v>
-      </c>
-      <c r="F81" s="131" t="s">
-        <v>133</v>
-      </c>
-      <c r="G81" s="95"/>
-      <c r="H81" s="132"/>
-      <c r="I81" s="51">
+      <c r="E81" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="F81" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="G81" s="87"/>
+      <c r="H81" s="115"/>
+      <c r="I81" s="63">
         <f t="shared" si="12"/>
         <v>1562481.8</v>
       </c>
-      <c r="J81" s="133"/>
-      <c r="K81" s="98">
+      <c r="J81" s="112"/>
+      <c r="K81" s="90">
         <v>2741374.3023971813</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="35">
+    <row r="82" ht="15" customHeight="1">
+      <c r="A82" s="46">
         <v>67</v>
       </c>
-      <c r="B82" s="126">
+      <c r="B82" s="47">
         <v>38</v>
       </c>
-      <c r="C82" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="D82" s="37">
+      <c r="C82" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D82" s="49">
         <v>5000456030144</v>
       </c>
-      <c r="E82" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="F82" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="G82" s="40"/>
-      <c r="H82" s="68"/>
-      <c r="I82" s="42">
+      <c r="E82" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="F82" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="G82" s="52"/>
+      <c r="H82" s="82"/>
+      <c r="I82" s="54">
         <f t="shared" ref="I82:I87" si="13">ROUND(K82/1.7545*1.21,1)</f>
         <v>37582.400000000001</v>
       </c>
-      <c r="J82" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="K82" s="44">
+      <c r="J82" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" s="56">
         <v>54494.530231187666</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="35">
+    <row r="83" ht="15" customHeight="1">
+      <c r="A83" s="46">
         <v>68</v>
       </c>
-      <c r="B83" s="126">
+      <c r="B83" s="47">
         <v>38</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" s="49">
+        <v>5000456030168</v>
+      </c>
+      <c r="E83" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="F83" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D83" s="37">
-        <v>5000456030168</v>
-      </c>
-      <c r="E83" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="F83" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="G83" s="40"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="42">
+      <c r="G83" s="52"/>
+      <c r="H83" s="82"/>
+      <c r="I83" s="54">
         <f t="shared" si="13"/>
         <v>51725.5</v>
       </c>
-      <c r="J83" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="K83" s="44">
+      <c r="J83" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="K83" s="56">
         <v>75001.92051581858</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="35">
+    <row r="84" ht="15" customHeight="1">
+      <c r="A84" s="46">
         <v>69</v>
       </c>
-      <c r="B84" s="126">
+      <c r="B84" s="47">
         <v>38</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="D84" s="37">
+      <c r="D84" s="49">
         <v>5000456030151</v>
       </c>
-      <c r="E84" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="F84" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="G84" s="40"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="42">
+      <c r="E84" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="F84" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G84" s="52"/>
+      <c r="H84" s="82"/>
+      <c r="I84" s="54">
         <f t="shared" si="13"/>
         <v>79931.899999999994</v>
       </c>
-      <c r="J84" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="K84" s="44">
+      <c r="J84" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="K84" s="56">
         <v>115901.22114638469</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="35">
+    <row r="85" ht="15" customHeight="1">
+      <c r="A85" s="46">
         <v>70</v>
       </c>
-      <c r="B85" s="126">
+      <c r="B85" s="47">
         <v>38</v>
       </c>
-      <c r="C85" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="D85" s="37">
+      <c r="C85" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D85" s="49">
         <v>5000456030175</v>
       </c>
-      <c r="E85" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="F85" s="39" t="s">
+      <c r="E85" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="F85" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="G85" s="52"/>
+      <c r="H85" s="82"/>
+      <c r="I85" s="54">
+        <f t="shared" si="13"/>
+        <v>39507.099999999999</v>
+      </c>
+      <c r="J85" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="K85" s="56">
+        <v>57285.285563433368</v>
+      </c>
+    </row>
+    <row r="86" ht="15" customHeight="1">
+      <c r="A86" s="116">
+        <v>71</v>
+      </c>
+      <c r="B86" s="47">
+        <v>38</v>
+      </c>
+      <c r="C86" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="G85" s="40"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="42">
+      <c r="D86" s="49">
+        <v>5000456030182</v>
+      </c>
+      <c r="E86" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="F86" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="G86" s="52"/>
+      <c r="H86" s="82"/>
+      <c r="I86" s="54">
         <f t="shared" si="13"/>
-        <v>39507.1</v>
-      </c>
-      <c r="J85" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="K85" s="44">
-        <v>57285.285563433368</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="138">
-        <v>71</v>
-      </c>
-      <c r="B86" s="126">
+        <v>52678.800000000003</v>
+      </c>
+      <c r="J86" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="K86" s="56">
+        <v>76384.298264607976</v>
+      </c>
+    </row>
+    <row r="87" ht="15" customHeight="1">
+      <c r="A87" s="116">
+        <v>72</v>
+      </c>
+      <c r="B87" s="114">
         <v>38</v>
       </c>
-      <c r="C86" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="D86" s="37">
-        <v>5000456030182</v>
-      </c>
-      <c r="E86" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="F86" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G86" s="40"/>
-      <c r="H86" s="68"/>
-      <c r="I86" s="42">
+      <c r="C87" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" s="99">
+        <v>7798144380050</v>
+      </c>
+      <c r="E87" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="G87" s="102"/>
+      <c r="H87" s="118"/>
+      <c r="I87" s="54">
         <f t="shared" si="13"/>
-        <v>52678.8</v>
-      </c>
-      <c r="J86" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="K86" s="44">
-        <v>76384.298264607976</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="138">
-        <v>72</v>
-      </c>
-      <c r="B87" s="127">
-        <v>38</v>
-      </c>
-      <c r="C87" s="107" t="s">
-        <v>156</v>
-      </c>
-      <c r="D87" s="108">
-        <v>7798144380050</v>
-      </c>
-      <c r="E87" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="F87" s="110" t="s">
-        <v>157</v>
-      </c>
-      <c r="G87" s="111"/>
-      <c r="H87" s="140"/>
-      <c r="I87" s="42">
-        <f t="shared" si="13"/>
-        <v>1445717.9</v>
-      </c>
-      <c r="J87" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="K87" s="114">
+        <v>1445717.8999999999</v>
+      </c>
+      <c r="J87" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="K87" s="105">
         <v>2096291</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="90"/>
-      <c r="B88" s="106"/>
-      <c r="C88" s="123"/>
-      <c r="D88" s="123"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="123"/>
-      <c r="G88" s="123"/>
-      <c r="H88" s="123"/>
-      <c r="I88" s="123"/>
-      <c r="J88" s="123"/>
-      <c r="K88" s="124"/>
-    </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="69"/>
-      <c r="C89" s="116"/>
-      <c r="D89" s="117"/>
-      <c r="E89" s="118"/>
-      <c r="F89" s="119"/>
-      <c r="G89" s="120"/>
-      <c r="H89" s="121"/>
-      <c r="I89" s="115"/>
-      <c r="J89" s="122"/>
-      <c r="K89" s="115"/>
-    </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="69"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="70"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="72"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="74"/>
-      <c r="H90" s="75"/>
-      <c r="I90" s="76"/>
-      <c r="J90" s="75"/>
-      <c r="K90" s="76"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="77"/>
-      <c r="B91" s="78"/>
-      <c r="C91" s="79"/>
-      <c r="D91" s="80"/>
-      <c r="E91" s="79"/>
-      <c r="F91" s="81"/>
-      <c r="I91" s="79"/>
-      <c r="J91" s="79"/>
-      <c r="K91" s="79"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="77"/>
-      <c r="B92" s="78"/>
-      <c r="C92" s="79"/>
-      <c r="E92" s="79"/>
-      <c r="F92" s="81"/>
-      <c r="I92" s="79"/>
-      <c r="J92" s="79"/>
-      <c r="K92" s="79"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="77"/>
-      <c r="B93" s="78"/>
-      <c r="C93" s="79"/>
-      <c r="D93" s="80"/>
-      <c r="E93" s="79"/>
-      <c r="F93" s="81"/>
-      <c r="I93" s="79"/>
-      <c r="J93" s="79"/>
-      <c r="K93" s="82"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="77"/>
-      <c r="B94" s="78"/>
-      <c r="C94" s="79"/>
-      <c r="D94" s="80"/>
-      <c r="E94" s="79"/>
-      <c r="F94" s="81"/>
-      <c r="I94" s="79"/>
-      <c r="J94" s="79"/>
-      <c r="K94" s="82"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
-      <c r="B95" s="78"/>
-      <c r="C95" s="79"/>
-      <c r="D95" s="80"/>
-      <c r="E95" s="79"/>
-      <c r="F95" s="81"/>
-      <c r="I95" s="79"/>
-      <c r="J95" s="83"/>
-      <c r="K95" s="82"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="77"/>
-      <c r="B96" s="78"/>
-      <c r="C96" s="79"/>
-      <c r="D96" s="80"/>
-      <c r="E96" s="79"/>
-      <c r="F96" s="81"/>
-      <c r="I96" s="79"/>
-      <c r="J96" s="83"/>
-      <c r="K96" s="82"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="77"/>
-      <c r="B97" s="78"/>
-      <c r="C97" s="79"/>
-      <c r="D97" s="80"/>
-      <c r="E97" s="79"/>
-      <c r="F97" s="81"/>
-      <c r="I97" s="79"/>
-      <c r="J97" s="79"/>
-      <c r="K97" s="82"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="77"/>
-      <c r="B98" s="78"/>
-      <c r="C98" s="79"/>
-      <c r="D98" s="80"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="81"/>
-      <c r="I98" s="79"/>
-      <c r="J98" s="79"/>
-      <c r="K98" s="82"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="77"/>
-      <c r="B99" s="78"/>
-      <c r="C99" s="79"/>
-      <c r="D99" s="80"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="81"/>
-      <c r="G99" s="81"/>
-      <c r="H99" s="81"/>
-      <c r="I99" s="79"/>
-      <c r="J99" s="79"/>
-      <c r="K99" s="82"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="77"/>
-      <c r="B100" s="78"/>
-      <c r="C100" s="79"/>
-      <c r="D100" s="80"/>
-      <c r="E100" s="79"/>
-      <c r="F100" s="81"/>
-      <c r="G100" s="81"/>
-      <c r="H100" s="81"/>
-      <c r="I100" s="79"/>
-      <c r="J100" s="79"/>
-      <c r="K100" s="82"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="77"/>
-      <c r="B101" s="78"/>
-      <c r="C101" s="79"/>
-      <c r="D101" s="80"/>
-      <c r="E101" s="79"/>
-      <c r="F101" s="81"/>
-      <c r="G101" s="81"/>
-      <c r="H101" s="81"/>
-      <c r="I101" s="79"/>
-      <c r="J101" s="79"/>
-      <c r="K101" s="82"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="77"/>
-      <c r="B102" s="78"/>
-      <c r="C102" s="79"/>
-      <c r="D102" s="80"/>
-      <c r="E102" s="79"/>
-      <c r="F102" s="81"/>
-      <c r="G102" s="81"/>
-      <c r="H102" s="81"/>
-      <c r="I102" s="79"/>
-      <c r="J102" s="79"/>
-      <c r="K102" s="82"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="77"/>
-      <c r="B103" s="78"/>
-      <c r="C103" s="79"/>
-      <c r="D103" s="80"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="81"/>
-      <c r="G103" s="81"/>
-      <c r="H103" s="81"/>
-      <c r="I103" s="79"/>
-      <c r="J103" s="79"/>
-      <c r="K103" s="82"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="77"/>
-      <c r="B104" s="78"/>
-      <c r="C104" s="79"/>
-      <c r="D104" s="80"/>
-      <c r="E104" s="79"/>
-      <c r="F104" s="81"/>
-      <c r="G104" s="81"/>
-      <c r="H104" s="81"/>
-      <c r="I104" s="79"/>
-      <c r="J104" s="79"/>
-      <c r="K104" s="82"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="77"/>
-      <c r="B105" s="78"/>
-      <c r="C105" s="79"/>
-      <c r="D105" s="80"/>
-      <c r="E105" s="79"/>
-      <c r="F105" s="81"/>
-      <c r="G105" s="81"/>
-      <c r="H105" s="81"/>
-      <c r="I105" s="79"/>
-      <c r="J105" s="79"/>
-      <c r="K105" s="82"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="77"/>
-      <c r="B106" s="78"/>
-      <c r="C106" s="79"/>
-      <c r="D106" s="80"/>
-      <c r="E106" s="79"/>
-      <c r="F106" s="81"/>
-      <c r="G106" s="81"/>
-      <c r="H106" s="81"/>
-      <c r="I106" s="79"/>
-      <c r="J106" s="79"/>
-      <c r="K106" s="82"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="77"/>
-      <c r="B107" s="84"/>
-      <c r="C107" s="77"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="81"/>
-      <c r="G107" s="81"/>
-      <c r="H107" s="81"/>
-      <c r="I107" s="79"/>
-      <c r="J107" s="79"/>
-      <c r="K107" s="82"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="77"/>
-      <c r="B108" s="84"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="81"/>
-      <c r="G108" s="81"/>
-      <c r="H108" s="81"/>
-      <c r="I108" s="79"/>
-      <c r="J108" s="79"/>
-      <c r="K108" s="82"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="77"/>
-      <c r="B109" s="84"/>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="81"/>
-      <c r="G109" s="81"/>
-      <c r="H109" s="81"/>
-      <c r="I109" s="79"/>
-      <c r="J109" s="79"/>
-      <c r="K109" s="82"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="77"/>
-      <c r="B110" s="84"/>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="81"/>
-      <c r="G110" s="81"/>
-      <c r="H110" s="81"/>
-      <c r="I110" s="79"/>
-      <c r="J110" s="79"/>
-      <c r="K110" s="79"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="77"/>
-      <c r="B111" s="84"/>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="81"/>
-      <c r="G111" s="81"/>
-      <c r="H111" s="81"/>
-      <c r="I111" s="79"/>
-      <c r="J111" s="79"/>
-      <c r="K111" s="79"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="77"/>
-      <c r="B112" s="84"/>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="81"/>
-      <c r="G112" s="81"/>
-      <c r="H112" s="81"/>
-      <c r="I112" s="79"/>
-      <c r="J112" s="79"/>
-      <c r="K112" s="79"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="77"/>
-      <c r="B113" s="84"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="81"/>
-      <c r="G113" s="81"/>
-      <c r="H113" s="81"/>
-      <c r="I113" s="79"/>
-      <c r="J113" s="79"/>
-      <c r="K113" s="79"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="77"/>
-      <c r="B114" s="84"/>
-      <c r="C114" s="77"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="81"/>
-      <c r="G114" s="81"/>
-      <c r="H114" s="81"/>
-      <c r="I114" s="79"/>
-      <c r="J114" s="79"/>
-      <c r="K114" s="79"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="77"/>
-      <c r="B115" s="84"/>
-      <c r="C115" s="77"/>
-      <c r="D115" s="77"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="81"/>
-      <c r="G115" s="81"/>
-      <c r="H115" s="81"/>
-      <c r="I115" s="79"/>
-      <c r="J115" s="79"/>
-      <c r="K115" s="79"/>
+    <row r="88" thickBot="1" ht="15" customHeight="1">
+      <c r="A88" s="119"/>
+      <c r="B88" s="120"/>
+      <c r="C88" s="121"/>
+      <c r="D88" s="121"/>
+      <c r="E88" s="121"/>
+      <c r="F88" s="121"/>
+      <c r="G88" s="121"/>
+      <c r="H88" s="121"/>
+      <c r="I88" s="121"/>
+      <c r="J88" s="121"/>
+      <c r="K88" s="122"/>
+    </row>
+    <row r="89" ht="15" customHeight="1">
+      <c r="A89" s="123"/>
+      <c r="C89" s="124"/>
+      <c r="D89" s="125"/>
+      <c r="E89" s="126"/>
+      <c r="F89" s="127"/>
+      <c r="G89" s="128"/>
+      <c r="H89" s="129"/>
+      <c r="I89" s="130"/>
+      <c r="J89" s="131"/>
+      <c r="K89" s="130"/>
+    </row>
+    <row r="90" ht="15" customHeight="1">
+      <c r="A90" s="123"/>
+      <c r="B90" s="123"/>
+      <c r="C90" s="132"/>
+      <c r="D90" s="133"/>
+      <c r="E90" s="134"/>
+      <c r="F90" s="135"/>
+      <c r="G90" s="136"/>
+      <c r="H90" s="137"/>
+      <c r="I90" s="138"/>
+      <c r="J90" s="137"/>
+      <c r="K90" s="138"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="139"/>
+      <c r="B91" s="140"/>
+      <c r="C91" s="141"/>
+      <c r="D91" s="142"/>
+      <c r="E91" s="141"/>
+      <c r="F91" s="143"/>
+      <c r="I91" s="141"/>
+      <c r="J91" s="141"/>
+      <c r="K91" s="141"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="139"/>
+      <c r="B92" s="140"/>
+      <c r="C92" s="141"/>
+      <c r="E92" s="141"/>
+      <c r="F92" s="143"/>
+      <c r="I92" s="141"/>
+      <c r="J92" s="141"/>
+      <c r="K92" s="141"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="139"/>
+      <c r="B93" s="140"/>
+      <c r="C93" s="141"/>
+      <c r="D93" s="142"/>
+      <c r="E93" s="141"/>
+      <c r="F93" s="143"/>
+      <c r="I93" s="141"/>
+      <c r="J93" s="141"/>
+      <c r="K93" s="144"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="139"/>
+      <c r="B94" s="140"/>
+      <c r="C94" s="141"/>
+      <c r="D94" s="142"/>
+      <c r="E94" s="141"/>
+      <c r="F94" s="143"/>
+      <c r="I94" s="141"/>
+      <c r="J94" s="141"/>
+      <c r="K94" s="144"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="139"/>
+      <c r="B95" s="140"/>
+      <c r="C95" s="141"/>
+      <c r="D95" s="142"/>
+      <c r="E95" s="141"/>
+      <c r="F95" s="143"/>
+      <c r="I95" s="141"/>
+      <c r="J95" s="145"/>
+      <c r="K95" s="144"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="139"/>
+      <c r="B96" s="140"/>
+      <c r="C96" s="141"/>
+      <c r="D96" s="142"/>
+      <c r="E96" s="141"/>
+      <c r="F96" s="143"/>
+      <c r="I96" s="141"/>
+      <c r="J96" s="145"/>
+      <c r="K96" s="144"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="139"/>
+      <c r="B97" s="140"/>
+      <c r="C97" s="141"/>
+      <c r="D97" s="142"/>
+      <c r="E97" s="141"/>
+      <c r="F97" s="143"/>
+      <c r="I97" s="141"/>
+      <c r="J97" s="141"/>
+      <c r="K97" s="144"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="139"/>
+      <c r="B98" s="140"/>
+      <c r="C98" s="141"/>
+      <c r="D98" s="142"/>
+      <c r="E98" s="141"/>
+      <c r="F98" s="143"/>
+      <c r="I98" s="141"/>
+      <c r="J98" s="141"/>
+      <c r="K98" s="144"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="139"/>
+      <c r="B99" s="140"/>
+      <c r="C99" s="141"/>
+      <c r="D99" s="142"/>
+      <c r="E99" s="141"/>
+      <c r="F99" s="143"/>
+      <c r="G99" s="143"/>
+      <c r="H99" s="143"/>
+      <c r="I99" s="141"/>
+      <c r="J99" s="141"/>
+      <c r="K99" s="144"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="139"/>
+      <c r="B100" s="140"/>
+      <c r="C100" s="141"/>
+      <c r="D100" s="142"/>
+      <c r="E100" s="141"/>
+      <c r="F100" s="143"/>
+      <c r="G100" s="143"/>
+      <c r="H100" s="143"/>
+      <c r="I100" s="141"/>
+      <c r="J100" s="141"/>
+      <c r="K100" s="144"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="139"/>
+      <c r="B101" s="140"/>
+      <c r="C101" s="141"/>
+      <c r="D101" s="142"/>
+      <c r="E101" s="141"/>
+      <c r="F101" s="143"/>
+      <c r="G101" s="143"/>
+      <c r="H101" s="143"/>
+      <c r="I101" s="141"/>
+      <c r="J101" s="141"/>
+      <c r="K101" s="144"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="139"/>
+      <c r="B102" s="140"/>
+      <c r="C102" s="141"/>
+      <c r="D102" s="142"/>
+      <c r="E102" s="141"/>
+      <c r="F102" s="143"/>
+      <c r="G102" s="143"/>
+      <c r="H102" s="143"/>
+      <c r="I102" s="141"/>
+      <c r="J102" s="141"/>
+      <c r="K102" s="144"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="139"/>
+      <c r="B103" s="140"/>
+      <c r="C103" s="141"/>
+      <c r="D103" s="142"/>
+      <c r="E103" s="141"/>
+      <c r="F103" s="143"/>
+      <c r="G103" s="143"/>
+      <c r="H103" s="143"/>
+      <c r="I103" s="141"/>
+      <c r="J103" s="141"/>
+      <c r="K103" s="144"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="139"/>
+      <c r="B104" s="140"/>
+      <c r="C104" s="141"/>
+      <c r="D104" s="142"/>
+      <c r="E104" s="141"/>
+      <c r="F104" s="143"/>
+      <c r="G104" s="143"/>
+      <c r="H104" s="143"/>
+      <c r="I104" s="141"/>
+      <c r="J104" s="141"/>
+      <c r="K104" s="144"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="139"/>
+      <c r="B105" s="140"/>
+      <c r="C105" s="141"/>
+      <c r="D105" s="142"/>
+      <c r="E105" s="141"/>
+      <c r="F105" s="143"/>
+      <c r="G105" s="143"/>
+      <c r="H105" s="143"/>
+      <c r="I105" s="141"/>
+      <c r="J105" s="141"/>
+      <c r="K105" s="144"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="139"/>
+      <c r="B106" s="140"/>
+      <c r="C106" s="141"/>
+      <c r="D106" s="142"/>
+      <c r="E106" s="141"/>
+      <c r="F106" s="143"/>
+      <c r="G106" s="143"/>
+      <c r="H106" s="143"/>
+      <c r="I106" s="141"/>
+      <c r="J106" s="141"/>
+      <c r="K106" s="144"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="139"/>
+      <c r="B107" s="146"/>
+      <c r="C107" s="139"/>
+      <c r="D107" s="139"/>
+      <c r="E107" s="147"/>
+      <c r="F107" s="143"/>
+      <c r="G107" s="143"/>
+      <c r="H107" s="143"/>
+      <c r="I107" s="141"/>
+      <c r="J107" s="141"/>
+      <c r="K107" s="144"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="139"/>
+      <c r="B108" s="146"/>
+      <c r="C108" s="139"/>
+      <c r="D108" s="139"/>
+      <c r="E108" s="147"/>
+      <c r="F108" s="143"/>
+      <c r="G108" s="143"/>
+      <c r="H108" s="143"/>
+      <c r="I108" s="141"/>
+      <c r="J108" s="141"/>
+      <c r="K108" s="144"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="139"/>
+      <c r="B109" s="146"/>
+      <c r="C109" s="139"/>
+      <c r="D109" s="139"/>
+      <c r="E109" s="147"/>
+      <c r="F109" s="143"/>
+      <c r="G109" s="143"/>
+      <c r="H109" s="143"/>
+      <c r="I109" s="141"/>
+      <c r="J109" s="141"/>
+      <c r="K109" s="144"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="139"/>
+      <c r="B110" s="146"/>
+      <c r="C110" s="139"/>
+      <c r="D110" s="139"/>
+      <c r="E110" s="147"/>
+      <c r="F110" s="143"/>
+      <c r="G110" s="143"/>
+      <c r="H110" s="143"/>
+      <c r="I110" s="141"/>
+      <c r="J110" s="141"/>
+      <c r="K110" s="141"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="139"/>
+      <c r="B111" s="146"/>
+      <c r="C111" s="139"/>
+      <c r="D111" s="139"/>
+      <c r="E111" s="147"/>
+      <c r="F111" s="143"/>
+      <c r="G111" s="143"/>
+      <c r="H111" s="143"/>
+      <c r="I111" s="141"/>
+      <c r="J111" s="141"/>
+      <c r="K111" s="141"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="139"/>
+      <c r="B112" s="146"/>
+      <c r="C112" s="139"/>
+      <c r="D112" s="139"/>
+      <c r="E112" s="147"/>
+      <c r="F112" s="143"/>
+      <c r="G112" s="143"/>
+      <c r="H112" s="143"/>
+      <c r="I112" s="141"/>
+      <c r="J112" s="141"/>
+      <c r="K112" s="141"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="139"/>
+      <c r="B113" s="146"/>
+      <c r="C113" s="139"/>
+      <c r="D113" s="139"/>
+      <c r="E113" s="147"/>
+      <c r="F113" s="143"/>
+      <c r="G113" s="143"/>
+      <c r="H113" s="143"/>
+      <c r="I113" s="141"/>
+      <c r="J113" s="141"/>
+      <c r="K113" s="141"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="139"/>
+      <c r="B114" s="146"/>
+      <c r="C114" s="139"/>
+      <c r="D114" s="139"/>
+      <c r="E114" s="147"/>
+      <c r="F114" s="143"/>
+      <c r="G114" s="143"/>
+      <c r="H114" s="143"/>
+      <c r="I114" s="141"/>
+      <c r="J114" s="141"/>
+      <c r="K114" s="141"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="139"/>
+      <c r="B115" s="146"/>
+      <c r="C115" s="139"/>
+      <c r="D115" s="139"/>
+      <c r="E115" s="147"/>
+      <c r="F115" s="143"/>
+      <c r="G115" s="143"/>
+      <c r="H115" s="143"/>
+      <c r="I115" s="141"/>
+      <c r="J115" s="141"/>
+      <c r="K115" s="141"/>
     </row>
   </sheetData>
   <autoFilter ref="A15:L88"/>
@@ -7438,17 +7227,24 @@
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="J13:J15"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup r:id="rId1" paperSize="9" orientation="landscape" blackAndWhite="1" scale="79" fitToHeight="0"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Arial Narrow,Normal"&amp;10Página &amp;P&amp;R&amp;"Arial Narrow,Normal"&amp;9&amp;D  &amp;T</oddFooter>
+    <oddFooter xml:space="preserve">&amp;C&amp;"Arial Narrow,Normal"&amp;10Página &amp;P&amp;R&amp;"Arial Narrow,Normal"&amp;9&amp;D  &amp;T</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A637F04A13DEB34CB36A63C6FFDCC047" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="270d36906462d748fb8593fec874214a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="608f07cd-52cf-4250-81de-ee437831cda4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b7b62bd5b154b162d0b558bcbcd8699" ns3:_="">
     <xsd:import namespace="608f07cd-52cf-4250-81de-ee437831cda4"/>
@@ -7630,15 +7426,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7646,27 +7433,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{290B7BC4-B2EB-4A92-9BD9-A67C08DFFEA6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F23E043F-F477-4CF8-863A-26E007C6EFD0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="608f07cd-52cf-4250-81de-ee437831cda4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/vsto/samples"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F23E043F-F477-4CF8-863A-26E007C6EFD0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{290B7BC4-B2EB-4A92-9BD9-A67C08DFFEA6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/vsto/samples"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7674,21 +7451,7 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714B6A7B-F901-4BD5-B6DC-458D93B2A640}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="608f07cd-52cf-4250-81de-ee437831cda4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/vsto/samples"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{487a556e-1783-48ec-ac71-68731adec807}" enabled="0" method="" siteId="{487a556e-1783-48ec-ac71-68731adec807}" removed="1"/>
-</clbl:labelList>
 </file>